--- a/PSX_Stock_Scanner/D-Advance_Technical_Analysis_QSE_STRONG_BUY.xlsx
+++ b/PSX_Stock_Scanner/D-Advance_Technical_Analysis_QSE_STRONG_BUY.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="All Symbols" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Recommended_Symbols" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buy_Symbols" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sell_Symbols" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AO_Symbols" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="All Symbols" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Recommended_Symbols" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Buy_Symbols" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sell_Symbols" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="AO_Symbols" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -541,7 +541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R433"/>
+  <dimension ref="A1:R484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25648,7 +25648,7 @@
     </row>
     <row r="381">
       <c r="A381" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
     </row>
     <row r="382">
       <c r="A382" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
     </row>
     <row r="383">
       <c r="A383" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
     </row>
     <row r="384">
       <c r="A384" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
     </row>
     <row r="385">
       <c r="A385" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
     </row>
     <row r="386">
       <c r="A386" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
     </row>
     <row r="387">
       <c r="A387" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
     </row>
     <row r="388">
       <c r="A388" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
@@ -26176,7 +26176,7 @@
     </row>
     <row r="389">
       <c r="A389" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
     </row>
     <row r="390">
       <c r="A390" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
     </row>
     <row r="391">
       <c r="A391" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
     </row>
     <row r="392">
       <c r="A392" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
@@ -26440,7 +26440,7 @@
     </row>
     <row r="393">
       <c r="A393" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
@@ -26506,7 +26506,7 @@
     </row>
     <row r="394">
       <c r="A394" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
     </row>
     <row r="395">
       <c r="A395" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
     </row>
     <row r="396">
       <c r="A396" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
     </row>
     <row r="397">
       <c r="A397" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
     </row>
     <row r="398">
       <c r="A398" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -26836,7 +26836,7 @@
     </row>
     <row r="399">
       <c r="A399" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
     </row>
     <row r="400">
       <c r="A400" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
     </row>
     <row r="401">
       <c r="A401" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
     </row>
     <row r="402">
       <c r="A402" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
     </row>
     <row r="403">
       <c r="A403" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
     </row>
     <row r="404">
       <c r="A404" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
@@ -27232,7 +27232,7 @@
     </row>
     <row r="405">
       <c r="A405" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
     </row>
     <row r="406">
       <c r="A406" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
     </row>
     <row r="407">
       <c r="A407" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
@@ -27430,7 +27430,7 @@
     </row>
     <row r="408">
       <c r="A408" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
     </row>
     <row r="409">
       <c r="A409" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
@@ -27562,7 +27562,7 @@
     </row>
     <row r="410">
       <c r="A410" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
     </row>
     <row r="411">
       <c r="A411" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
     </row>
     <row r="412">
       <c r="A412" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
     </row>
     <row r="413">
       <c r="A413" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
     </row>
     <row r="414">
       <c r="A414" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
@@ -27892,7 +27892,7 @@
     </row>
     <row r="415">
       <c r="A415" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
     </row>
     <row r="416">
       <c r="A416" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
     </row>
     <row r="417">
       <c r="A417" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
     </row>
     <row r="418">
       <c r="A418" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
     </row>
     <row r="419">
       <c r="A419" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
     </row>
     <row r="420">
       <c r="A420" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
@@ -28288,7 +28288,7 @@
     </row>
     <row r="421">
       <c r="A421" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
     </row>
     <row r="422">
       <c r="A422" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
     </row>
     <row r="423">
       <c r="A423" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
     </row>
     <row r="424">
       <c r="A424" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -28552,7 +28552,7 @@
     </row>
     <row r="425">
       <c r="A425" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
     </row>
     <row r="426">
       <c r="A426" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
@@ -28684,7 +28684,7 @@
     </row>
     <row r="427">
       <c r="A427" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
@@ -28750,7 +28750,7 @@
     </row>
     <row r="428">
       <c r="A428" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
     </row>
     <row r="429">
       <c r="A429" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
     </row>
     <row r="430">
       <c r="A430" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
     </row>
     <row r="431">
       <c r="A431" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
@@ -29014,11 +29014,11 @@
     </row>
     <row r="432">
       <c r="A432" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>BEMA</t>
+          <t>GNRI</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -29027,118 +29027,3484 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>4</v>
+        <v>10509.85</v>
       </c>
       <c r="E432" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F432" t="n">
         <v>10</v>
       </c>
       <c r="G432" t="n">
-        <v>14</v>
-      </c>
-      <c r="H432" t="n">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H432" t="inlineStr"/>
       <c r="I432" t="n">
-        <v>20.97643757</v>
+        <v>23.09169733</v>
       </c>
       <c r="J432" s="8" t="n">
-        <v>61.11081012</v>
+        <v>59.31143321</v>
       </c>
       <c r="K432" t="n">
-        <v>61.11081012</v>
+        <v>57.50038025</v>
       </c>
       <c r="L432" s="8" t="n">
-        <v>0.15620294</v>
+        <v>264.22190294</v>
       </c>
       <c r="M432" t="n">
-        <v>0</v>
+        <v>0.42147044</v>
       </c>
       <c r="N432" t="n">
-        <v>3.567555553333333</v>
+        <v>9380.32072222</v>
       </c>
       <c r="O432" t="n">
-        <v>4.20922222</v>
+        <v>11556.63863888667</v>
       </c>
       <c r="P432" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ABEMA</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGNRI</t>
         </is>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-BEMA/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-GNRI/financials-overview/</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-BEMA/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-GNRI/technicals/</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45306.4923882025</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>GNRI</t>
+          <t>IQCD</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D433" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="E433" t="n">
+        <v>13</v>
+      </c>
+      <c r="F433" t="n">
+        <v>9</v>
+      </c>
+      <c r="G433" t="n">
+        <v>4</v>
+      </c>
+      <c r="H433" t="n">
+        <v>572046</v>
+      </c>
+      <c r="I433" t="n">
+        <v>16.44564448</v>
+      </c>
+      <c r="J433" s="8" t="n">
+        <v>48.81505353</v>
+      </c>
+      <c r="K433" t="n">
+        <v>48.47707855</v>
+      </c>
+      <c r="L433" s="8" t="n">
+        <v>-0.02029412</v>
+      </c>
+      <c r="M433" t="n">
+        <v>0.07949125999999999</v>
+      </c>
+      <c r="N433" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="O433" t="n">
+        <v>13.795</v>
+      </c>
+      <c r="P433" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIQCD</t>
+        </is>
+      </c>
+      <c r="Q433" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-IQCD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R433" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-IQCD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>QIBK</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
           <t>BUY</t>
         </is>
       </c>
-      <c r="D433" t="n">
-        <v>10509.85</v>
-      </c>
-      <c r="E433" t="n">
+      <c r="D434" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="E434" t="n">
+        <v>4</v>
+      </c>
+      <c r="F434" t="n">
+        <v>10</v>
+      </c>
+      <c r="G434" t="n">
+        <v>12</v>
+      </c>
+      <c r="H434" t="n">
+        <v>561815</v>
+      </c>
+      <c r="I434" t="n">
+        <v>26.05063886</v>
+      </c>
+      <c r="J434" s="8" t="n">
+        <v>56.33853687</v>
+      </c>
+      <c r="K434" t="n">
+        <v>54.63828582</v>
+      </c>
+      <c r="L434" s="8" t="n">
+        <v>0.68367651</v>
+      </c>
+      <c r="M434" t="n">
+        <v>0.59259259</v>
+      </c>
+      <c r="N434" t="n">
+        <v>16.86166788833333</v>
+      </c>
+      <c r="O434" t="n">
+        <v>24.26833272166667</v>
+      </c>
+      <c r="P434" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIBK</t>
+        </is>
+      </c>
+      <c r="Q434" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIBK/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R434" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIBK/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>ORDS</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="E435" t="n">
+        <v>8</v>
+      </c>
+      <c r="F435" t="n">
+        <v>9</v>
+      </c>
+      <c r="G435" t="n">
+        <v>9</v>
+      </c>
+      <c r="H435" t="n">
+        <v>557652</v>
+      </c>
+      <c r="I435" t="n">
+        <v>31.33913125</v>
+      </c>
+      <c r="J435" s="8" t="n">
+        <v>49.79504553</v>
+      </c>
+      <c r="K435" t="n">
+        <v>52.79037672</v>
+      </c>
+      <c r="L435" s="8" t="n">
+        <v>0.09735293</v>
+      </c>
+      <c r="M435" t="n">
+        <v>-1.32200189</v>
+      </c>
+      <c r="N435" t="n">
+        <v>9.578888886666666</v>
+      </c>
+      <c r="O435" t="n">
+        <v>12.31055555333334</v>
+      </c>
+      <c r="P435" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AORDS</t>
+        </is>
+      </c>
+      <c r="Q435" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-ORDS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R435" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-ORDS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>ERES</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="E436" t="n">
+        <v>8</v>
+      </c>
+      <c r="F436" t="n">
+        <v>10</v>
+      </c>
+      <c r="G436" t="n">
+        <v>8</v>
+      </c>
+      <c r="H436" t="n">
+        <v>4632819</v>
+      </c>
+      <c r="I436" t="n">
+        <v>21.016581</v>
+      </c>
+      <c r="J436" s="8" t="n">
+        <v>53.18119471</v>
+      </c>
+      <c r="K436" t="n">
+        <v>57.65425119</v>
+      </c>
+      <c r="L436" s="8" t="n">
+        <v>0.03395</v>
+      </c>
+      <c r="M436" t="n">
+        <v>-1.00783875</v>
+      </c>
+      <c r="N436" t="n">
+        <v>0.7944444466666667</v>
+      </c>
+      <c r="O436" t="n">
+        <v>0.9081111133333334</v>
+      </c>
+      <c r="P436" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AERES</t>
+        </is>
+      </c>
+      <c r="Q436" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-ERES/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R436" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-ERES/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>MARK</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>2.612</v>
+      </c>
+      <c r="E437" t="n">
+        <v>1</v>
+      </c>
+      <c r="F437" t="n">
+        <v>10</v>
+      </c>
+      <c r="G437" t="n">
+        <v>15</v>
+      </c>
+      <c r="H437" t="n">
+        <v>15343414</v>
+      </c>
+      <c r="I437" t="n">
+        <v>18.01716431</v>
+      </c>
+      <c r="J437" s="8" t="n">
+        <v>63.4955174</v>
+      </c>
+      <c r="K437" t="n">
+        <v>59.47599026</v>
+      </c>
+      <c r="L437" s="8" t="n">
+        <v>0.06179118</v>
+      </c>
+      <c r="M437" t="n">
+        <v>1.67380304</v>
+      </c>
+      <c r="N437" t="n">
+        <v>2.21622222</v>
+      </c>
+      <c r="O437" t="n">
+        <v>2.883555553333334</v>
+      </c>
+      <c r="P437" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMARK</t>
+        </is>
+      </c>
+      <c r="Q437" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MARK/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R437" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MARK/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>CBQK</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>5.564</v>
+      </c>
+      <c r="E438" t="n">
+        <v>10</v>
+      </c>
+      <c r="F438" t="n">
+        <v>8</v>
+      </c>
+      <c r="G438" t="n">
+        <v>8</v>
+      </c>
+      <c r="H438" t="n">
+        <v>1208742</v>
+      </c>
+      <c r="I438" t="n">
+        <v>24.00943115</v>
+      </c>
+      <c r="J438" s="8" t="n">
+        <v>48.26605853</v>
+      </c>
+      <c r="K438" t="n">
+        <v>46.29322096</v>
+      </c>
+      <c r="L438" s="8" t="n">
+        <v>0.11870588</v>
+      </c>
+      <c r="M438" t="n">
+        <v>0.79710145</v>
+      </c>
+      <c r="N438" t="n">
+        <v>4.855555553333333</v>
+      </c>
+      <c r="O438" t="n">
+        <v>6.872222219999998</v>
+      </c>
+      <c r="P438" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ACBQK</t>
+        </is>
+      </c>
+      <c r="Q438" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-CBQK/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R438" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-CBQK/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>DUBK</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>3.976</v>
+      </c>
+      <c r="E439" t="n">
         <v>3</v>
       </c>
-      <c r="F433" t="n">
+      <c r="F439" t="n">
         <v>10</v>
       </c>
-      <c r="G433" t="n">
+      <c r="G439" t="n">
+        <v>13</v>
+      </c>
+      <c r="H439" t="n">
+        <v>8852484</v>
+      </c>
+      <c r="I439" t="n">
+        <v>18.611752</v>
+      </c>
+      <c r="J439" s="8" t="n">
+        <v>54.76179333</v>
+      </c>
+      <c r="K439" t="n">
+        <v>52.71927221</v>
+      </c>
+      <c r="L439" s="8" t="n">
+        <v>0.03327059</v>
+      </c>
+      <c r="M439" t="n">
+        <v>0.30272452</v>
+      </c>
+      <c r="N439" t="n">
+        <v>3.7165</v>
+      </c>
+      <c r="O439" t="n">
+        <v>4.152833333333333</v>
+      </c>
+      <c r="P439" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADUBK</t>
+        </is>
+      </c>
+      <c r="Q439" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DUBK/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R439" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DUBK/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>MPHC</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E440" t="n">
+        <v>6</v>
+      </c>
+      <c r="F440" t="n">
+        <v>10</v>
+      </c>
+      <c r="G440" t="n">
+        <v>10</v>
+      </c>
+      <c r="H440" t="n">
+        <v>5657299</v>
+      </c>
+      <c r="I440" t="n">
+        <v>40.35877722</v>
+      </c>
+      <c r="J440" s="8" t="n">
+        <v>59.65363782</v>
+      </c>
+      <c r="K440" t="n">
+        <v>63.42296399</v>
+      </c>
+      <c r="L440" s="8" t="n">
+        <v>0.13340588</v>
+      </c>
+      <c r="M440" t="n">
+        <v>-1.0989011</v>
+      </c>
+      <c r="N440" t="n">
+        <v>1.483666666666667</v>
+      </c>
+      <c r="O440" t="n">
+        <v>1.940166666666667</v>
+      </c>
+      <c r="P440" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMPHC</t>
+        </is>
+      </c>
+      <c r="Q440" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MPHC/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R440" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MPHC/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>QEWS</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>17.79</v>
+      </c>
+      <c r="E441" t="n">
+        <v>3</v>
+      </c>
+      <c r="F441" t="n">
+        <v>10</v>
+      </c>
+      <c r="G441" t="n">
+        <v>13</v>
+      </c>
+      <c r="H441" t="n">
+        <v>295949</v>
+      </c>
+      <c r="I441" t="n">
+        <v>22.75671926</v>
+      </c>
+      <c r="J441" s="8" t="n">
+        <v>54.65528578</v>
+      </c>
+      <c r="K441" t="n">
+        <v>50.65975661</v>
+      </c>
+      <c r="L441" s="8" t="n">
+        <v>0.3501471</v>
+      </c>
+      <c r="M441" t="n">
+        <v>1.30980076</v>
+      </c>
+      <c r="N441" t="n">
+        <v>15.98888911166667</v>
+      </c>
+      <c r="O441" t="n">
+        <v>20.205553945</v>
+      </c>
+      <c r="P441" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQEWS</t>
+        </is>
+      </c>
+      <c r="Q441" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QEWS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R441" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QEWS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>QGTS</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="E442" t="n">
+        <v>4</v>
+      </c>
+      <c r="F442" t="n">
+        <v>8</v>
+      </c>
+      <c r="G442" t="n">
+        <v>14</v>
+      </c>
+      <c r="H442" t="n">
+        <v>1228372</v>
+      </c>
+      <c r="I442" t="n">
+        <v>27.01722624</v>
+      </c>
+      <c r="J442" s="8" t="n">
+        <v>73.24194253</v>
+      </c>
+      <c r="K442" t="n">
+        <v>72.65300926</v>
+      </c>
+      <c r="L442" s="8" t="n">
+        <v>0.22350588</v>
+      </c>
+      <c r="M442" t="n">
+        <v>0.27322404</v>
+      </c>
+      <c r="N442" t="n">
+        <v>3.125833333333333</v>
+      </c>
+      <c r="O442" t="n">
+        <v>3.721666666666667</v>
+      </c>
+      <c r="P442" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGTS</t>
+        </is>
+      </c>
+      <c r="Q442" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QGTS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R442" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QGTS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>QFLS</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>STRONG_SELL</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="E443" t="n">
+        <v>17</v>
+      </c>
+      <c r="F443" t="n">
+        <v>9</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0</v>
+      </c>
+      <c r="H443" t="n">
+        <v>184972</v>
+      </c>
+      <c r="I443" t="n">
+        <v>25.19148594</v>
+      </c>
+      <c r="J443" s="8" t="n">
+        <v>47.50895867</v>
+      </c>
+      <c r="K443" t="n">
+        <v>49.43713951</v>
+      </c>
+      <c r="L443" s="8" t="n">
+        <v>0.09805904999999999</v>
+      </c>
+      <c r="M443" t="n">
+        <v>-0.31308704</v>
+      </c>
+      <c r="N443" t="n">
+        <v>15.07666666666667</v>
+      </c>
+      <c r="O443" t="n">
+        <v>17.625</v>
+      </c>
+      <c r="P443" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQFLS</t>
+        </is>
+      </c>
+      <c r="Q443" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QFLS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R443" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QFLS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>QIIK</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="E444" t="n">
+        <v>3</v>
+      </c>
+      <c r="F444" t="n">
+        <v>9</v>
+      </c>
+      <c r="G444" t="n">
+        <v>14</v>
+      </c>
+      <c r="H444" t="n">
+        <v>270663</v>
+      </c>
+      <c r="I444" t="n">
+        <v>46.66586327</v>
+      </c>
+      <c r="J444" s="8" t="n">
+        <v>69.55701748</v>
+      </c>
+      <c r="K444" t="n">
+        <v>69.55701748</v>
+      </c>
+      <c r="L444" s="8" t="n">
+        <v>0.43997059</v>
+      </c>
+      <c r="M444" t="n">
+        <v>0</v>
+      </c>
+      <c r="N444" t="n">
+        <v>9.461666666666666</v>
+      </c>
+      <c r="O444" t="n">
+        <v>11.515</v>
+      </c>
+      <c r="P444" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIIK</t>
+        </is>
+      </c>
+      <c r="Q444" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIIK/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R444" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIIK/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>QNNS</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="E445" t="n">
+        <v>2</v>
+      </c>
+      <c r="F445" t="n">
+        <v>8</v>
+      </c>
+      <c r="G445" t="n">
+        <v>16</v>
+      </c>
+      <c r="H445" t="n">
+        <v>872031</v>
+      </c>
+      <c r="I445" t="n">
+        <v>19.31357474</v>
+      </c>
+      <c r="J445" s="8" t="n">
+        <v>77.95711393000001</v>
+      </c>
+      <c r="K445" t="n">
+        <v>73.69162443</v>
+      </c>
+      <c r="L445" s="8" t="n">
+        <v>0.5358794</v>
+      </c>
+      <c r="M445" t="n">
+        <v>3.27408793</v>
+      </c>
+      <c r="N445" t="n">
+        <v>9.069944446666666</v>
+      </c>
+      <c r="O445" t="n">
+        <v>10.26344444666667</v>
+      </c>
+      <c r="P445" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQNNS</t>
+        </is>
+      </c>
+      <c r="Q445" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QNNS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R445" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QNNS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>BRES</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>2.899</v>
+      </c>
+      <c r="E446" t="n">
+        <v>2</v>
+      </c>
+      <c r="F446" t="n">
+        <v>9</v>
+      </c>
+      <c r="G446" t="n">
+        <v>15</v>
+      </c>
+      <c r="H446" t="n">
+        <v>1415769</v>
+      </c>
+      <c r="I446" t="n">
+        <v>32.23756858</v>
+      </c>
+      <c r="J446" s="8" t="n">
+        <v>67.26903851</v>
+      </c>
+      <c r="K446" t="n">
+        <v>66.69762528</v>
+      </c>
+      <c r="L446" s="8" t="n">
+        <v>0.09105588000000001</v>
+      </c>
+      <c r="M446" t="n">
+        <v>0.13816926</v>
+      </c>
+      <c r="N446" t="n">
+        <v>2.567055553333333</v>
+      </c>
+      <c r="O446" t="n">
+        <v>3.107888886666666</v>
+      </c>
+      <c r="P446" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ABRES</t>
+        </is>
+      </c>
+      <c r="Q446" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-BRES/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R446" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-BRES/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>ABQK</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>3.795</v>
+      </c>
+      <c r="E447" t="n">
         <v>12</v>
       </c>
-      <c r="H433" t="inlineStr"/>
-      <c r="I433" t="n">
-        <v>23.09169733</v>
-      </c>
-      <c r="J433" s="8" t="n">
-        <v>59.31143321</v>
-      </c>
-      <c r="K433" t="n">
-        <v>57.50038025</v>
-      </c>
-      <c r="L433" s="8" t="n">
-        <v>264.22190294</v>
-      </c>
-      <c r="M433" t="n">
-        <v>0.42147044</v>
-      </c>
-      <c r="N433" t="n">
-        <v>9380.32072222</v>
-      </c>
-      <c r="O433" t="n">
-        <v>11556.63863888667</v>
-      </c>
-      <c r="P433" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGNRI</t>
-        </is>
-      </c>
-      <c r="Q433" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-GNRI/financials-overview/</t>
-        </is>
-      </c>
-      <c r="R433" t="inlineStr">
-        <is>
-          <t>https://www.tradingview.com/symbols/QSE-GNRI/technicals/</t>
+      <c r="F447" t="n">
+        <v>10</v>
+      </c>
+      <c r="G447" t="n">
+        <v>4</v>
+      </c>
+      <c r="H447" t="n">
+        <v>914</v>
+      </c>
+      <c r="I447" t="n">
+        <v>23.89252465</v>
+      </c>
+      <c r="J447" s="8" t="n">
+        <v>47.29656474</v>
+      </c>
+      <c r="K447" t="n">
+        <v>46.47457398</v>
+      </c>
+      <c r="L447" s="8" t="n">
+        <v>0.10726765</v>
+      </c>
+      <c r="M447" t="n">
+        <v>0.3968254</v>
+      </c>
+      <c r="N447" t="n">
+        <v>3.457</v>
+      </c>
+      <c r="O447" t="n">
+        <v>3.911666666666667</v>
+      </c>
+      <c r="P447" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AABQK</t>
+        </is>
+      </c>
+      <c r="Q447" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-ABQK/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R447" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-ABQK/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>QATI</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>2.406</v>
+      </c>
+      <c r="E448" t="n">
+        <v>13</v>
+      </c>
+      <c r="F448" t="n">
+        <v>10</v>
+      </c>
+      <c r="G448" t="n">
+        <v>3</v>
+      </c>
+      <c r="H448" t="n">
+        <v>41582</v>
+      </c>
+      <c r="I448" t="n">
+        <v>30.81808464</v>
+      </c>
+      <c r="J448" s="8" t="n">
+        <v>46.57446557</v>
+      </c>
+      <c r="K448" t="n">
+        <v>47.84047385</v>
+      </c>
+      <c r="L448" s="8" t="n">
+        <v>0.03164706</v>
+      </c>
+      <c r="M448" t="n">
+        <v>-0.41390728</v>
+      </c>
+      <c r="N448" t="n">
+        <v>2.197055553333333</v>
+      </c>
+      <c r="O448" t="n">
+        <v>2.79472222</v>
+      </c>
+      <c r="P448" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQATI</t>
+        </is>
+      </c>
+      <c r="Q448" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QATI/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R448" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QATI/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>VFQS</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="E449" t="n">
+        <v>5</v>
+      </c>
+      <c r="F449" t="n">
+        <v>10</v>
+      </c>
+      <c r="G449" t="n">
+        <v>11</v>
+      </c>
+      <c r="H449" t="n">
+        <v>832490</v>
+      </c>
+      <c r="I449" t="n">
+        <v>25.45989161</v>
+      </c>
+      <c r="J449" s="8" t="n">
+        <v>56.25802346</v>
+      </c>
+      <c r="K449" t="n">
+        <v>59.09100319</v>
+      </c>
+      <c r="L449" s="8" t="n">
+        <v>0.05475882</v>
+      </c>
+      <c r="M449" t="n">
+        <v>-0.47619048</v>
+      </c>
+      <c r="N449" t="n">
+        <v>1.729166666666667</v>
+      </c>
+      <c r="O449" t="n">
+        <v>2.020666666666667</v>
+      </c>
+      <c r="P449" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AVFQS</t>
+        </is>
+      </c>
+      <c r="Q449" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-VFQS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R449" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-VFQS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>QAMC</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>1.337</v>
+      </c>
+      <c r="E450" t="n">
+        <v>7</v>
+      </c>
+      <c r="F450" t="n">
+        <v>9</v>
+      </c>
+      <c r="G450" t="n">
+        <v>10</v>
+      </c>
+      <c r="H450" t="n">
+        <v>3706281</v>
+      </c>
+      <c r="I450" t="n">
+        <v>26.55702163</v>
+      </c>
+      <c r="J450" s="8" t="n">
+        <v>52.93425574</v>
+      </c>
+      <c r="K450" t="n">
+        <v>52.02924932</v>
+      </c>
+      <c r="L450" s="8" t="n">
+        <v>0.02306765</v>
+      </c>
+      <c r="M450" t="n">
+        <v>0.30007502</v>
+      </c>
+      <c r="N450" t="n">
+        <v>1.154944446666667</v>
+      </c>
+      <c r="O450" t="n">
+        <v>1.550944446666667</v>
+      </c>
+      <c r="P450" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQAMC</t>
+        </is>
+      </c>
+      <c r="Q450" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QAMC/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R450" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QAMC/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>IGRD</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>2.019</v>
+      </c>
+      <c r="E451" t="n">
+        <v>15</v>
+      </c>
+      <c r="F451" t="n">
+        <v>10</v>
+      </c>
+      <c r="G451" t="n">
+        <v>1</v>
+      </c>
+      <c r="H451" t="n">
+        <v>2662461</v>
+      </c>
+      <c r="I451" t="n">
+        <v>9.762345460000001</v>
+      </c>
+      <c r="J451" s="8" t="n">
+        <v>47.01122159</v>
+      </c>
+      <c r="K451" t="n">
+        <v>43.61666428</v>
+      </c>
+      <c r="L451" s="8" t="n">
+        <v>-0.01703235</v>
+      </c>
+      <c r="M451" t="n">
+        <v>0.59790732</v>
+      </c>
+      <c r="N451" t="n">
+        <v>1.966666666666667</v>
+      </c>
+      <c r="O451" t="n">
+        <v>2.162833333333333</v>
+      </c>
+      <c r="P451" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIGRD</t>
+        </is>
+      </c>
+      <c r="Q451" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-IGRD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R451" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-IGRD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>AHCS</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="E452" t="n">
+        <v>2</v>
+      </c>
+      <c r="F452" t="n">
+        <v>10</v>
+      </c>
+      <c r="G452" t="n">
+        <v>14</v>
+      </c>
+      <c r="H452" t="n">
+        <v>59800</v>
+      </c>
+      <c r="I452" t="n">
+        <v>39.86961931</v>
+      </c>
+      <c r="J452" s="8" t="n">
+        <v>62.69118853</v>
+      </c>
+      <c r="K452" t="n">
+        <v>66.90534710999999</v>
+      </c>
+      <c r="L452" s="8" t="n">
+        <v>0.04500882</v>
+      </c>
+      <c r="M452" t="n">
+        <v>-0.6718925</v>
+      </c>
+      <c r="N452" t="n">
+        <v>0.81077778</v>
+      </c>
+      <c r="O452" t="n">
+        <v>0.8804444466666667</v>
+      </c>
+      <c r="P452" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AAHCS</t>
+        </is>
+      </c>
+      <c r="Q452" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-AHCS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R452" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-AHCS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>DHBK</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>1.717</v>
+      </c>
+      <c r="E453" t="n">
+        <v>8</v>
+      </c>
+      <c r="F453" t="n">
+        <v>10</v>
+      </c>
+      <c r="G453" t="n">
+        <v>8</v>
+      </c>
+      <c r="H453" t="n">
+        <v>719586</v>
+      </c>
+      <c r="I453" t="n">
+        <v>26.95982348</v>
+      </c>
+      <c r="J453" s="8" t="n">
+        <v>51.45922602</v>
+      </c>
+      <c r="K453" t="n">
+        <v>53.80879589</v>
+      </c>
+      <c r="L453" s="8" t="n">
+        <v>0.05825588</v>
+      </c>
+      <c r="M453" t="n">
+        <v>-0.6940428</v>
+      </c>
+      <c r="N453" t="n">
+        <v>1.5055</v>
+      </c>
+      <c r="O453" t="n">
+        <v>2.024333333333333</v>
+      </c>
+      <c r="P453" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADHBK</t>
+        </is>
+      </c>
+      <c r="Q453" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DHBK/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R453" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DHBK/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>GISS</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>STRONG_BUY</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>2.832</v>
+      </c>
+      <c r="E454" t="n">
+        <v>1</v>
+      </c>
+      <c r="F454" t="n">
+        <v>9</v>
+      </c>
+      <c r="G454" t="n">
+        <v>16</v>
+      </c>
+      <c r="H454" t="n">
+        <v>5583698</v>
+      </c>
+      <c r="I454" t="n">
+        <v>15.788429</v>
+      </c>
+      <c r="J454" s="8" t="n">
+        <v>64.59400302</v>
+      </c>
+      <c r="K454" t="n">
+        <v>61.92454092</v>
+      </c>
+      <c r="L454" s="8" t="n">
+        <v>0.06136471</v>
+      </c>
+      <c r="M454" t="n">
+        <v>0.96256684</v>
+      </c>
+      <c r="N454" t="n">
+        <v>2.482166666666667</v>
+      </c>
+      <c r="O454" t="n">
+        <v>2.9295</v>
+      </c>
+      <c r="P454" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGISS</t>
+        </is>
+      </c>
+      <c r="Q454" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-GISS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R454" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-GISS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>ZHCD</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="E455" t="n">
+        <v>10</v>
+      </c>
+      <c r="F455" t="n">
+        <v>10</v>
+      </c>
+      <c r="G455" t="n">
+        <v>6</v>
+      </c>
+      <c r="H455" t="n">
+        <v>62459</v>
+      </c>
+      <c r="I455" t="n">
+        <v>21.83382696</v>
+      </c>
+      <c r="J455" s="8" t="n">
+        <v>50.19302976</v>
+      </c>
+      <c r="K455" t="n">
+        <v>50.19302976</v>
+      </c>
+      <c r="L455" s="8" t="n">
+        <v>0.1825</v>
+      </c>
+      <c r="M455" t="n">
+        <v>0</v>
+      </c>
+      <c r="N455" t="n">
+        <v>12.98666666666666</v>
+      </c>
+      <c r="O455" t="n">
+        <v>14.01333333333334</v>
+      </c>
+      <c r="P455" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AZHCD</t>
+        </is>
+      </c>
+      <c r="Q455" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-ZHCD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R455" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-ZHCD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>UDCD</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="E456" t="n">
+        <v>3</v>
+      </c>
+      <c r="F456" t="n">
+        <v>10</v>
+      </c>
+      <c r="G456" t="n">
+        <v>13</v>
+      </c>
+      <c r="H456" t="n">
+        <v>10112506</v>
+      </c>
+      <c r="I456" t="n">
+        <v>28.77315896</v>
+      </c>
+      <c r="J456" s="8" t="n">
+        <v>68.93122081</v>
+      </c>
+      <c r="K456" t="n">
+        <v>66.52041771</v>
+      </c>
+      <c r="L456" s="8" t="n">
+        <v>0.04392353</v>
+      </c>
+      <c r="M456" t="n">
+        <v>0.8411215</v>
+      </c>
+      <c r="N456" t="n">
+        <v>0.9519444466666668</v>
+      </c>
+      <c r="O456" t="n">
+        <v>1.126111113333333</v>
+      </c>
+      <c r="P456" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AUDCD</t>
+        </is>
+      </c>
+      <c r="Q456" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-UDCD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R456" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-UDCD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>MERS</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="E457" t="n">
+        <v>6</v>
+      </c>
+      <c r="F457" t="n">
+        <v>10</v>
+      </c>
+      <c r="G457" t="n">
+        <v>10</v>
+      </c>
+      <c r="H457" t="n">
+        <v>111437</v>
+      </c>
+      <c r="I457" t="n">
+        <v>47.33176218</v>
+      </c>
+      <c r="J457" s="8" t="n">
+        <v>56.73588682</v>
+      </c>
+      <c r="K457" t="n">
+        <v>57.27830969</v>
+      </c>
+      <c r="L457" s="8" t="n">
+        <v>0.30232353</v>
+      </c>
+      <c r="M457" t="n">
+        <v>-0.07429421</v>
+      </c>
+      <c r="N457" t="n">
+        <v>12.62888888666667</v>
+      </c>
+      <c r="O457" t="n">
+        <v>14.37055555333333</v>
+      </c>
+      <c r="P457" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMERS</t>
+        </is>
+      </c>
+      <c r="Q457" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MERS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R457" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MERS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>QNCD</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E458" t="n">
+        <v>3</v>
+      </c>
+      <c r="F458" t="n">
+        <v>10</v>
+      </c>
+      <c r="G458" t="n">
+        <v>13</v>
+      </c>
+      <c r="H458" t="n">
+        <v>335005</v>
+      </c>
+      <c r="I458" t="n">
+        <v>25.57208112</v>
+      </c>
+      <c r="J458" s="8" t="n">
+        <v>60.63149693</v>
+      </c>
+      <c r="K458" t="n">
+        <v>62.86972548</v>
+      </c>
+      <c r="L458" s="8" t="n">
+        <v>0.16940588</v>
+      </c>
+      <c r="M458" t="n">
+        <v>-0.42215048</v>
+      </c>
+      <c r="N458" t="n">
+        <v>3.565666666666667</v>
+      </c>
+      <c r="O458" t="n">
+        <v>4.176166666666666</v>
+      </c>
+      <c r="P458" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQNCD</t>
+        </is>
+      </c>
+      <c r="Q458" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QNCD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R458" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QNCD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>BLDN</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>STRONG_SELL</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>1.195</v>
+      </c>
+      <c r="E459" t="n">
+        <v>16</v>
+      </c>
+      <c r="F459" t="n">
+        <v>9</v>
+      </c>
+      <c r="G459" t="n">
+        <v>1</v>
+      </c>
+      <c r="H459" t="n">
+        <v>2054671</v>
+      </c>
+      <c r="I459" t="n">
+        <v>9.78831063</v>
+      </c>
+      <c r="J459" s="8" t="n">
+        <v>44.23781533</v>
+      </c>
+      <c r="K459" t="n">
+        <v>44.23781533</v>
+      </c>
+      <c r="L459" s="8" t="n">
+        <v>-0.00107941</v>
+      </c>
+      <c r="M459" t="n">
+        <v>0</v>
+      </c>
+      <c r="N459" t="n">
+        <v>1.126833333333334</v>
+      </c>
+      <c r="O459" t="n">
+        <v>1.2845</v>
+      </c>
+      <c r="P459" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ABLDN</t>
+        </is>
+      </c>
+      <c r="Q459" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-BLDN/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R459" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-BLDN/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>QIGD</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E460" t="n">
+        <v>4</v>
+      </c>
+      <c r="F460" t="n">
+        <v>10</v>
+      </c>
+      <c r="G460" t="n">
+        <v>12</v>
+      </c>
+      <c r="H460" t="n">
+        <v>518572</v>
+      </c>
+      <c r="I460" t="n">
+        <v>29.53790971</v>
+      </c>
+      <c r="J460" s="8" t="n">
+        <v>60.24942587</v>
+      </c>
+      <c r="K460" t="n">
+        <v>64.02078912</v>
+      </c>
+      <c r="L460" s="8" t="n">
+        <v>0.05793529</v>
+      </c>
+      <c r="M460" t="n">
+        <v>-0.59171598</v>
+      </c>
+      <c r="N460" t="n">
+        <v>1.4945</v>
+      </c>
+      <c r="O460" t="n">
+        <v>1.723666666666667</v>
+      </c>
+      <c r="P460" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIGD</t>
+        </is>
+      </c>
+      <c r="Q460" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIGD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R460" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIGD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>MEZA</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>2.771</v>
+      </c>
+      <c r="E461" t="n">
+        <v>10</v>
+      </c>
+      <c r="F461" t="n">
+        <v>9</v>
+      </c>
+      <c r="G461" t="n">
+        <v>5</v>
+      </c>
+      <c r="H461" t="n">
+        <v>131761</v>
+      </c>
+      <c r="I461" t="n">
+        <v>10.92115156</v>
+      </c>
+      <c r="J461" s="8" t="n">
+        <v>45.05310778</v>
+      </c>
+      <c r="K461" t="n">
+        <v>45.43441136</v>
+      </c>
+      <c r="L461" s="8" t="n">
+        <v>-0.02702353</v>
+      </c>
+      <c r="M461" t="n">
+        <v>-0.07212405</v>
+      </c>
+      <c r="N461" t="n">
+        <v>2.712555553333333</v>
+      </c>
+      <c r="O461" t="n">
+        <v>2.972888886666667</v>
+      </c>
+      <c r="P461" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMEZA</t>
+        </is>
+      </c>
+      <c r="Q461" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MEZA/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R461" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MEZA/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>GWCS</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>3.248</v>
+      </c>
+      <c r="E462" t="n">
+        <v>2</v>
+      </c>
+      <c r="F462" t="n">
+        <v>10</v>
+      </c>
+      <c r="G462" t="n">
+        <v>14</v>
+      </c>
+      <c r="H462" t="n">
+        <v>612995</v>
+      </c>
+      <c r="I462" t="n">
+        <v>23.06628059</v>
+      </c>
+      <c r="J462" s="8" t="n">
+        <v>62.56452145</v>
+      </c>
+      <c r="K462" t="n">
+        <v>57.9409177</v>
+      </c>
+      <c r="L462" s="8" t="n">
+        <v>0.12364412</v>
+      </c>
+      <c r="M462" t="n">
+        <v>1.31004367</v>
+      </c>
+      <c r="N462" t="n">
+        <v>2.902833333333333</v>
+      </c>
+      <c r="O462" t="n">
+        <v>3.306166666666667</v>
+      </c>
+      <c r="P462" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGWCS</t>
+        </is>
+      </c>
+      <c r="Q462" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-GWCS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R462" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-GWCS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>MCCS</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>4.096</v>
+      </c>
+      <c r="E463" t="n">
+        <v>5</v>
+      </c>
+      <c r="F463" t="n">
+        <v>10</v>
+      </c>
+      <c r="G463" t="n">
+        <v>11</v>
+      </c>
+      <c r="H463" t="n">
+        <v>60866</v>
+      </c>
+      <c r="I463" t="n">
+        <v>9.860099780000001</v>
+      </c>
+      <c r="J463" s="8" t="n">
+        <v>57.67267097</v>
+      </c>
+      <c r="K463" t="n">
+        <v>58.10379028</v>
+      </c>
+      <c r="L463" s="8" t="n">
+        <v>0.15714706</v>
+      </c>
+      <c r="M463" t="n">
+        <v>-0.09756098000000001</v>
+      </c>
+      <c r="N463" t="n">
+        <v>3.533666666666667</v>
+      </c>
+      <c r="O463" t="n">
+        <v>4.595166666666667</v>
+      </c>
+      <c r="P463" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMCCS</t>
+        </is>
+      </c>
+      <c r="Q463" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MCCS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R463" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MCCS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>MCGS</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>STRONG_SELL</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>5.234</v>
+      </c>
+      <c r="E464" t="n">
+        <v>16</v>
+      </c>
+      <c r="F464" t="n">
+        <v>10</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0</v>
+      </c>
+      <c r="H464" t="n">
+        <v>784276</v>
+      </c>
+      <c r="I464" t="n">
+        <v>19.04122703</v>
+      </c>
+      <c r="J464" s="8" t="n">
+        <v>29.87569169</v>
+      </c>
+      <c r="K464" t="n">
+        <v>33.99745522</v>
+      </c>
+      <c r="L464" s="8" t="n">
+        <v>-0.10877059</v>
+      </c>
+      <c r="M464" t="n">
+        <v>-1.09599395</v>
+      </c>
+      <c r="N464" t="n">
+        <v>5.149833333333333</v>
+      </c>
+      <c r="O464" t="n">
+        <v>5.734666666666667</v>
+      </c>
+      <c r="P464" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMCGS</t>
+        </is>
+      </c>
+      <c r="Q464" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MCGS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R464" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MCGS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>QFBQ</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>1.362</v>
+      </c>
+      <c r="E465" t="n">
+        <v>2</v>
+      </c>
+      <c r="F465" t="n">
+        <v>9</v>
+      </c>
+      <c r="G465" t="n">
+        <v>15</v>
+      </c>
+      <c r="H465" t="n">
+        <v>2068238</v>
+      </c>
+      <c r="I465" t="n">
+        <v>17.74054313</v>
+      </c>
+      <c r="J465" s="8" t="n">
+        <v>57.93623722</v>
+      </c>
+      <c r="K465" t="n">
+        <v>57.44294551</v>
+      </c>
+      <c r="L465" s="8" t="n">
+        <v>0.01635294</v>
+      </c>
+      <c r="M465" t="n">
+        <v>0.14705882</v>
+      </c>
+      <c r="N465" t="n">
+        <v>1.23072222</v>
+      </c>
+      <c r="O465" t="n">
+        <v>1.430555553333333</v>
+      </c>
+      <c r="P465" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQFBQ</t>
+        </is>
+      </c>
+      <c r="Q465" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QFBQ/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R465" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QFBQ/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>QIMD</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>3</v>
+      </c>
+      <c r="E466" t="n">
+        <v>4</v>
+      </c>
+      <c r="F466" t="n">
+        <v>10</v>
+      </c>
+      <c r="G466" t="n">
+        <v>12</v>
+      </c>
+      <c r="H466" t="n">
+        <v>1354000</v>
+      </c>
+      <c r="I466" t="n">
+        <v>22.29607477</v>
+      </c>
+      <c r="J466" s="8" t="n">
+        <v>51.17573561</v>
+      </c>
+      <c r="K466" t="n">
+        <v>51.17573561</v>
+      </c>
+      <c r="L466" s="8" t="n">
+        <v>0.01993529</v>
+      </c>
+      <c r="M466" t="n">
+        <v>0</v>
+      </c>
+      <c r="N466" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O466" t="n">
+        <v>3.055</v>
+      </c>
+      <c r="P466" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIMD</t>
+        </is>
+      </c>
+      <c r="Q466" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIMD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R466" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIMD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>QISI</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>8.975</v>
+      </c>
+      <c r="E467" t="n">
+        <v>2</v>
+      </c>
+      <c r="F467" t="n">
+        <v>9</v>
+      </c>
+      <c r="G467" t="n">
+        <v>15</v>
+      </c>
+      <c r="H467" t="n">
+        <v>37410</v>
+      </c>
+      <c r="I467" t="n">
+        <v>11.72822733</v>
+      </c>
+      <c r="J467" s="8" t="n">
+        <v>57.23541113</v>
+      </c>
+      <c r="K467" t="n">
+        <v>58.2287495</v>
+      </c>
+      <c r="L467" s="8" t="n">
+        <v>0.09660884</v>
+      </c>
+      <c r="M467" t="n">
+        <v>-0.16685206</v>
+      </c>
+      <c r="N467" t="n">
+        <v>8.472444446666666</v>
+      </c>
+      <c r="O467" t="n">
+        <v>9.203944446666666</v>
+      </c>
+      <c r="P467" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQISI</t>
+        </is>
+      </c>
+      <c r="Q467" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QISI/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R467" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QISI/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>DOHI</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E468" t="n">
+        <v>4</v>
+      </c>
+      <c r="F468" t="n">
+        <v>10</v>
+      </c>
+      <c r="G468" t="n">
+        <v>12</v>
+      </c>
+      <c r="H468" t="n">
+        <v>35730</v>
+      </c>
+      <c r="I468" t="n">
+        <v>44.04474954</v>
+      </c>
+      <c r="J468" s="8" t="n">
+        <v>57.74356912</v>
+      </c>
+      <c r="K468" t="n">
+        <v>66.52356361</v>
+      </c>
+      <c r="L468" s="8" t="n">
+        <v>0.11265294</v>
+      </c>
+      <c r="M468" t="n">
+        <v>-1.96078431</v>
+      </c>
+      <c r="N468" t="n">
+        <v>2.254333333333333</v>
+      </c>
+      <c r="O468" t="n">
+        <v>2.457833333333333</v>
+      </c>
+      <c r="P468" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADOHI</t>
+        </is>
+      </c>
+      <c r="Q468" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DOHI/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R468" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DOHI/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>QGRI</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D469" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E469" t="n">
+        <v>3</v>
+      </c>
+      <c r="F469" t="n">
+        <v>10</v>
+      </c>
+      <c r="G469" t="n">
+        <v>13</v>
+      </c>
+      <c r="H469" t="n">
+        <v>800</v>
+      </c>
+      <c r="I469" t="n">
+        <v>26.30822596</v>
+      </c>
+      <c r="J469" s="8" t="n">
+        <v>56.81709346</v>
+      </c>
+      <c r="K469" t="n">
+        <v>51.31707688</v>
+      </c>
+      <c r="L469" s="8" t="n">
+        <v>0.06877941</v>
+      </c>
+      <c r="M469" t="n">
+        <v>4.61538462</v>
+      </c>
+      <c r="N469" t="n">
+        <v>1.033666666666667</v>
+      </c>
+      <c r="O469" t="n">
+        <v>1.708333333333333</v>
+      </c>
+      <c r="P469" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGRI</t>
+        </is>
+      </c>
+      <c r="Q469" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QGRI/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R469" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QGRI/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>QLMI</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>STRONG_SELL</t>
+        </is>
+      </c>
+      <c r="D470" t="n">
+        <v>2.448</v>
+      </c>
+      <c r="E470" t="n">
+        <v>17</v>
+      </c>
+      <c r="F470" t="n">
+        <v>7</v>
+      </c>
+      <c r="G470" t="n">
+        <v>2</v>
+      </c>
+      <c r="H470" t="n">
+        <v>419377</v>
+      </c>
+      <c r="I470" t="n">
+        <v>30.83789321</v>
+      </c>
+      <c r="J470" s="8" t="n">
+        <v>33.27833265</v>
+      </c>
+      <c r="K470" t="n">
+        <v>35.04379043</v>
+      </c>
+      <c r="L470" s="8" t="n">
+        <v>-0.09255587999999999</v>
+      </c>
+      <c r="M470" t="n">
+        <v>-0.40683483</v>
+      </c>
+      <c r="N470" t="n">
+        <v>2.30772222</v>
+      </c>
+      <c r="O470" t="n">
+        <v>2.833888886666667</v>
+      </c>
+      <c r="P470" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQLMI</t>
+        </is>
+      </c>
+      <c r="Q470" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QLMI/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R470" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QLMI/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>SIIS</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D471" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="E471" t="n">
+        <v>4</v>
+      </c>
+      <c r="F471" t="n">
+        <v>10</v>
+      </c>
+      <c r="G471" t="n">
+        <v>12</v>
+      </c>
+      <c r="H471" t="n">
+        <v>919477</v>
+      </c>
+      <c r="I471" t="n">
+        <v>21.72154662</v>
+      </c>
+      <c r="J471" s="8" t="n">
+        <v>55.40876255</v>
+      </c>
+      <c r="K471" t="n">
+        <v>56.30002652</v>
+      </c>
+      <c r="L471" s="8" t="n">
+        <v>0.01609118</v>
+      </c>
+      <c r="M471" t="n">
+        <v>-0.14513788</v>
+      </c>
+      <c r="N471" t="n">
+        <v>0.6218888866666666</v>
+      </c>
+      <c r="O471" t="n">
+        <v>0.7337222200000001</v>
+      </c>
+      <c r="P471" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ASIIS</t>
+        </is>
+      </c>
+      <c r="Q471" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-SIIS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R471" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-SIIS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>AKHI</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D472" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E472" t="n">
+        <v>14</v>
+      </c>
+      <c r="F472" t="n">
+        <v>8</v>
+      </c>
+      <c r="G472" t="n">
+        <v>4</v>
+      </c>
+      <c r="H472" t="n">
+        <v>482259</v>
+      </c>
+      <c r="I472" t="n">
+        <v>7.84273475</v>
+      </c>
+      <c r="J472" s="8" t="n">
+        <v>47.73487866</v>
+      </c>
+      <c r="K472" t="n">
+        <v>50.90054419</v>
+      </c>
+      <c r="L472" s="8" t="n">
+        <v>0.00466765</v>
+      </c>
+      <c r="M472" t="n">
+        <v>-0.57685782</v>
+      </c>
+      <c r="N472" t="n">
+        <v>2.71272222</v>
+      </c>
+      <c r="O472" t="n">
+        <v>3.145388886666666</v>
+      </c>
+      <c r="P472" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AAKHI</t>
+        </is>
+      </c>
+      <c r="Q472" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-AKHI/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R472" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-AKHI/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>MRDS</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>STRONG_SELL</t>
+        </is>
+      </c>
+      <c r="D473" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E473" t="n">
+        <v>17</v>
+      </c>
+      <c r="F473" t="n">
+        <v>8</v>
+      </c>
+      <c r="G473" t="n">
+        <v>1</v>
+      </c>
+      <c r="H473" t="n">
+        <v>2415737</v>
+      </c>
+      <c r="I473" t="n">
+        <v>12.07885044</v>
+      </c>
+      <c r="J473" s="8" t="n">
+        <v>41.9354329</v>
+      </c>
+      <c r="K473" t="n">
+        <v>44.6770479</v>
+      </c>
+      <c r="L473" s="8" t="n">
+        <v>-0.00204927</v>
+      </c>
+      <c r="M473" t="n">
+        <v>-0.55248619</v>
+      </c>
+      <c r="N473" t="n">
+        <v>0.6625</v>
+      </c>
+      <c r="O473" t="n">
+        <v>0.8054999999999999</v>
+      </c>
+      <c r="P473" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMRDS</t>
+        </is>
+      </c>
+      <c r="Q473" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MRDS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R473" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MRDS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>MKDM</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>4.978</v>
+      </c>
+      <c r="E474" t="n">
+        <v>14</v>
+      </c>
+      <c r="F474" t="n">
+        <v>10</v>
+      </c>
+      <c r="G474" t="n">
+        <v>2</v>
+      </c>
+      <c r="H474" t="n">
+        <v>31046</v>
+      </c>
+      <c r="I474" t="n">
+        <v>12.77125681</v>
+      </c>
+      <c r="J474" s="8" t="n">
+        <v>40.73351068</v>
+      </c>
+      <c r="K474" t="n">
+        <v>42.09389</v>
+      </c>
+      <c r="L474" s="8" t="n">
+        <v>-0.06362353</v>
+      </c>
+      <c r="M474" t="n">
+        <v>-0.30042059</v>
+      </c>
+      <c r="N474" t="n">
+        <v>4.885</v>
+      </c>
+      <c r="O474" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="P474" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMKDM</t>
+        </is>
+      </c>
+      <c r="Q474" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MKDM/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R474" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MKDM/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>WDAM</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D475" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="E475" t="n">
+        <v>12</v>
+      </c>
+      <c r="F475" t="n">
+        <v>10</v>
+      </c>
+      <c r="G475" t="n">
+        <v>4</v>
+      </c>
+      <c r="H475" t="n">
+        <v>400085</v>
+      </c>
+      <c r="I475" t="n">
+        <v>16.9205621</v>
+      </c>
+      <c r="J475" s="8" t="n">
+        <v>43.35346952</v>
+      </c>
+      <c r="K475" t="n">
+        <v>47.02176763</v>
+      </c>
+      <c r="L475" s="8" t="n">
+        <v>0.02164118</v>
+      </c>
+      <c r="M475" t="n">
+        <v>-0.91463415</v>
+      </c>
+      <c r="N475" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O475" t="n">
+        <v>2.488333333333333</v>
+      </c>
+      <c r="P475" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AWDAM</t>
+        </is>
+      </c>
+      <c r="Q475" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-WDAM/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R475" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-WDAM/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>NLCS</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="E476" t="n">
+        <v>2</v>
+      </c>
+      <c r="F476" t="n">
+        <v>10</v>
+      </c>
+      <c r="G476" t="n">
+        <v>14</v>
+      </c>
+      <c r="H476" t="n">
+        <v>238404</v>
+      </c>
+      <c r="I476" t="n">
+        <v>38.791723</v>
+      </c>
+      <c r="J476" s="8" t="n">
+        <v>67.64967964</v>
+      </c>
+      <c r="K476" t="n">
+        <v>67.64967964</v>
+      </c>
+      <c r="L476" s="8" t="n">
+        <v>0.05413529</v>
+      </c>
+      <c r="M476" t="n">
+        <v>0</v>
+      </c>
+      <c r="N476" t="n">
+        <v>0.6856111133333332</v>
+      </c>
+      <c r="O476" t="n">
+        <v>0.7571111133333334</v>
+      </c>
+      <c r="P476" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ANLCS</t>
+        </is>
+      </c>
+      <c r="Q476" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-NLCS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R476" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-NLCS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>MHAR</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="D477" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="E477" t="n">
+        <v>7</v>
+      </c>
+      <c r="F477" t="n">
+        <v>10</v>
+      </c>
+      <c r="G477" t="n">
+        <v>7</v>
+      </c>
+      <c r="H477" t="n">
+        <v>8555</v>
+      </c>
+      <c r="I477" t="n">
+        <v>21.03971346</v>
+      </c>
+      <c r="J477" s="8" t="n">
+        <v>44.27432257</v>
+      </c>
+      <c r="K477" t="n">
+        <v>43.60693175</v>
+      </c>
+      <c r="L477" s="8" t="n">
+        <v>-0.01476471</v>
+      </c>
+      <c r="M477" t="n">
+        <v>0.13486177</v>
+      </c>
+      <c r="N477" t="n">
+        <v>1.38422222</v>
+      </c>
+      <c r="O477" t="n">
+        <v>1.59322222</v>
+      </c>
+      <c r="P477" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMHAR</t>
+        </is>
+      </c>
+      <c r="Q477" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MHAR/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R477" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MHAR/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>QOIS</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D478" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E478" t="n">
+        <v>2</v>
+      </c>
+      <c r="F478" t="n">
+        <v>9</v>
+      </c>
+      <c r="G478" t="n">
+        <v>15</v>
+      </c>
+      <c r="H478" t="n">
+        <v>791868</v>
+      </c>
+      <c r="I478" t="n">
+        <v>26.17417301</v>
+      </c>
+      <c r="J478" s="8" t="n">
+        <v>54.44939123</v>
+      </c>
+      <c r="K478" t="n">
+        <v>51.92909077</v>
+      </c>
+      <c r="L478" s="8" t="n">
+        <v>0.01825</v>
+      </c>
+      <c r="M478" t="n">
+        <v>0.65645514</v>
+      </c>
+      <c r="N478" t="n">
+        <v>0.7915000000000001</v>
+      </c>
+      <c r="O478" t="n">
+        <v>1.048166666666667</v>
+      </c>
+      <c r="P478" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQOIS</t>
+        </is>
+      </c>
+      <c r="Q478" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QOIS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R478" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QOIS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>DBIS</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D479" t="n">
+        <v>1.307</v>
+      </c>
+      <c r="E479" t="n">
+        <v>14</v>
+      </c>
+      <c r="F479" t="n">
+        <v>10</v>
+      </c>
+      <c r="G479" t="n">
+        <v>2</v>
+      </c>
+      <c r="H479" t="n">
+        <v>123999</v>
+      </c>
+      <c r="I479" t="n">
+        <v>13.0085436</v>
+      </c>
+      <c r="J479" s="8" t="n">
+        <v>46.65205678</v>
+      </c>
+      <c r="K479" t="n">
+        <v>46.65205678</v>
+      </c>
+      <c r="L479" s="8" t="n">
+        <v>0.00672647</v>
+      </c>
+      <c r="M479" t="n">
+        <v>0</v>
+      </c>
+      <c r="N479" t="n">
+        <v>1.18922222</v>
+      </c>
+      <c r="O479" t="n">
+        <v>1.42572222</v>
+      </c>
+      <c r="P479" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADBIS</t>
+        </is>
+      </c>
+      <c r="Q479" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DBIS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R479" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DBIS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>IHGS</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D480" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E480" t="n">
+        <v>6</v>
+      </c>
+      <c r="F480" t="n">
+        <v>10</v>
+      </c>
+      <c r="G480" t="n">
+        <v>10</v>
+      </c>
+      <c r="H480" t="n">
+        <v>302083</v>
+      </c>
+      <c r="I480" t="n">
+        <v>25.31666481</v>
+      </c>
+      <c r="J480" s="8" t="n">
+        <v>56.6137683</v>
+      </c>
+      <c r="K480" t="n">
+        <v>53.24577006</v>
+      </c>
+      <c r="L480" s="8" t="n">
+        <v>0.15808824</v>
+      </c>
+      <c r="M480" t="n">
+        <v>1.25957026</v>
+      </c>
+      <c r="N480" t="n">
+        <v>3.520611113333333</v>
+      </c>
+      <c r="O480" t="n">
+        <v>4.50877778</v>
+      </c>
+      <c r="P480" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIHGS</t>
+        </is>
+      </c>
+      <c r="Q480" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-IHGS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R480" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-IHGS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>FALH</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E481" t="n">
+        <v>15</v>
+      </c>
+      <c r="F481" t="n">
+        <v>9</v>
+      </c>
+      <c r="G481" t="n">
+        <v>2</v>
+      </c>
+      <c r="H481" t="n">
+        <v>9107</v>
+      </c>
+      <c r="I481" t="n">
+        <v>20.2638014</v>
+      </c>
+      <c r="J481" s="8" t="n">
+        <v>47.1493232</v>
+      </c>
+      <c r="K481" t="n">
+        <v>51.44859629</v>
+      </c>
+      <c r="L481" s="8" t="n">
+        <v>0.00856765</v>
+      </c>
+      <c r="M481" t="n">
+        <v>-1.20481928</v>
+      </c>
+      <c r="N481" t="n">
+        <v>0.7198888866666667</v>
+      </c>
+      <c r="O481" t="n">
+        <v>0.9343888866666666</v>
+      </c>
+      <c r="P481" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AFALH</t>
+        </is>
+      </c>
+      <c r="Q481" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-FALH/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R481" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-FALH/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>QCFS</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D482" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E482" t="n">
+        <v>3</v>
+      </c>
+      <c r="F482" t="n">
+        <v>10</v>
+      </c>
+      <c r="G482" t="n">
+        <v>13</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0</v>
+      </c>
+      <c r="I482" t="n">
+        <v>43.64270303</v>
+      </c>
+      <c r="J482" s="8" t="n">
+        <v>75.86902218</v>
+      </c>
+      <c r="K482" t="n">
+        <v>75.86902218</v>
+      </c>
+      <c r="L482" s="8" t="n">
+        <v>-0.01533824</v>
+      </c>
+      <c r="M482" t="n">
+        <v>0</v>
+      </c>
+      <c r="N482" t="n">
+        <v>2.698333333333334</v>
+      </c>
+      <c r="O482" t="n">
+        <v>3.303333333333333</v>
+      </c>
+      <c r="P482" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQCFS</t>
+        </is>
+      </c>
+      <c r="Q482" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QCFS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R482" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QCFS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>QGMD</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D483" t="n">
+        <v>1.401</v>
+      </c>
+      <c r="E483" t="n">
+        <v>14</v>
+      </c>
+      <c r="F483" t="n">
+        <v>9</v>
+      </c>
+      <c r="G483" t="n">
+        <v>3</v>
+      </c>
+      <c r="H483" t="n">
+        <v>772492</v>
+      </c>
+      <c r="I483" t="n">
+        <v>26.73563303</v>
+      </c>
+      <c r="J483" s="8" t="n">
+        <v>38.70861754</v>
+      </c>
+      <c r="K483" t="n">
+        <v>38.51523169</v>
+      </c>
+      <c r="L483" s="8" t="n">
+        <v>-0.06387941</v>
+      </c>
+      <c r="M483" t="n">
+        <v>0.07142857</v>
+      </c>
+      <c r="N483" t="n">
+        <v>1.279888886666667</v>
+      </c>
+      <c r="O483" t="n">
+        <v>1.70522222</v>
+      </c>
+      <c r="P483" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGMD</t>
+        </is>
+      </c>
+      <c r="Q483" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QGMD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R483" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QGMD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>BEMA</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D484" t="n">
+        <v>4</v>
+      </c>
+      <c r="E484" t="n">
+        <v>2</v>
+      </c>
+      <c r="F484" t="n">
+        <v>10</v>
+      </c>
+      <c r="G484" t="n">
+        <v>14</v>
+      </c>
+      <c r="H484" t="n">
+        <v>0</v>
+      </c>
+      <c r="I484" t="n">
+        <v>20.97643757</v>
+      </c>
+      <c r="J484" s="8" t="n">
+        <v>61.11081012</v>
+      </c>
+      <c r="K484" t="n">
+        <v>61.11081012</v>
+      </c>
+      <c r="L484" s="8" t="n">
+        <v>0.15620294</v>
+      </c>
+      <c r="M484" t="n">
+        <v>0</v>
+      </c>
+      <c r="N484" t="n">
+        <v>3.567555553333333</v>
+      </c>
+      <c r="O484" t="n">
+        <v>4.20922222</v>
+      </c>
+      <c r="P484" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ABEMA</t>
+        </is>
+      </c>
+      <c r="Q484" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-BEMA/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R484" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-BEMA/technicals/</t>
         </is>
       </c>
     </row>
@@ -29146,6 +32512,11 @@
   <conditionalFormatting sqref="A1:R1000">
     <cfRule type="expression" priority="1" dxfId="5">
       <formula>$L1&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1000">
+    <cfRule type="expression" priority="2" dxfId="6">
+      <formula>$E1&gt;7</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -29158,7 +32529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30647,7 +34018,7 @@
     </row>
     <row r="23">
       <c r="A23" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -30713,7 +34084,7 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -30779,7 +34150,7 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -30838,6 +34209,72 @@
       <c r="R25" t="inlineStr">
         <is>
           <t>https://www.tradingview.com/symbols/QSE-GNRI/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GISS</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>STRONG_BUY</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2.832</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>9</v>
+      </c>
+      <c r="G26" t="n">
+        <v>16</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5583698</v>
+      </c>
+      <c r="I26" t="n">
+        <v>15.788429</v>
+      </c>
+      <c r="J26" s="8" t="n">
+        <v>64.59400302</v>
+      </c>
+      <c r="K26" t="n">
+        <v>61.92454092</v>
+      </c>
+      <c r="L26" s="8" t="n">
+        <v>0.06136471</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.96256684</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.482166666666667</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.9295</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGISS</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-GISS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-GISS/technicals/</t>
         </is>
       </c>
     </row>
@@ -30857,7 +34294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R220"/>
+  <dimension ref="A1:R244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43756,7 +47193,7 @@
     </row>
     <row r="196">
       <c r="A196" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -43822,7 +47259,7 @@
     </row>
     <row r="197">
       <c r="A197" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -43888,7 +47325,7 @@
     </row>
     <row r="198">
       <c r="A198" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -43954,7 +47391,7 @@
     </row>
     <row r="199">
       <c r="A199" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -44020,7 +47457,7 @@
     </row>
     <row r="200">
       <c r="A200" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -44086,7 +47523,7 @@
     </row>
     <row r="201">
       <c r="A201" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -44152,7 +47589,7 @@
     </row>
     <row r="202">
       <c r="A202" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -44218,7 +47655,7 @@
     </row>
     <row r="203">
       <c r="A203" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -44284,7 +47721,7 @@
     </row>
     <row r="204">
       <c r="A204" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -44350,7 +47787,7 @@
     </row>
     <row r="205">
       <c r="A205" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -44416,7 +47853,7 @@
     </row>
     <row r="206">
       <c r="A206" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -44482,7 +47919,7 @@
     </row>
     <row r="207">
       <c r="A207" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -44548,7 +47985,7 @@
     </row>
     <row r="208">
       <c r="A208" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -44614,7 +48051,7 @@
     </row>
     <row r="209">
       <c r="A209" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -44680,7 +48117,7 @@
     </row>
     <row r="210">
       <c r="A210" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -44746,7 +48183,7 @@
     </row>
     <row r="211">
       <c r="A211" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -44812,7 +48249,7 @@
     </row>
     <row r="212">
       <c r="A212" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -44878,7 +48315,7 @@
     </row>
     <row r="213">
       <c r="A213" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -44944,7 +48381,7 @@
     </row>
     <row r="214">
       <c r="A214" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -45010,7 +48447,7 @@
     </row>
     <row r="215">
       <c r="A215" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -45076,7 +48513,7 @@
     </row>
     <row r="216">
       <c r="A216" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -45142,7 +48579,7 @@
     </row>
     <row r="217">
       <c r="A217" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -45208,7 +48645,7 @@
     </row>
     <row r="218">
       <c r="A218" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -45274,7 +48711,7 @@
     </row>
     <row r="219">
       <c r="A219" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -45340,7 +48777,7 @@
     </row>
     <row r="220">
       <c r="A220" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -45401,6 +48838,1590 @@
       <c r="R220" t="inlineStr">
         <is>
           <t>https://www.tradingview.com/symbols/QSE-QOIS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>QIBK</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="E221" t="n">
+        <v>4</v>
+      </c>
+      <c r="F221" t="n">
+        <v>10</v>
+      </c>
+      <c r="G221" t="n">
+        <v>12</v>
+      </c>
+      <c r="H221" t="n">
+        <v>561815</v>
+      </c>
+      <c r="I221" t="n">
+        <v>26.05063886</v>
+      </c>
+      <c r="J221" s="8" t="n">
+        <v>56.33853687</v>
+      </c>
+      <c r="K221" t="n">
+        <v>54.63828582</v>
+      </c>
+      <c r="L221" s="8" t="n">
+        <v>0.68367651</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0.59259259</v>
+      </c>
+      <c r="N221" t="n">
+        <v>16.86166788833333</v>
+      </c>
+      <c r="O221" t="n">
+        <v>24.26833272166667</v>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIBK</t>
+        </is>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIBK/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIBK/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>MARK</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>2.612</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" t="n">
+        <v>10</v>
+      </c>
+      <c r="G222" t="n">
+        <v>15</v>
+      </c>
+      <c r="H222" t="n">
+        <v>15343414</v>
+      </c>
+      <c r="I222" t="n">
+        <v>18.01716431</v>
+      </c>
+      <c r="J222" s="8" t="n">
+        <v>63.4955174</v>
+      </c>
+      <c r="K222" t="n">
+        <v>59.47599026</v>
+      </c>
+      <c r="L222" s="8" t="n">
+        <v>0.06179118</v>
+      </c>
+      <c r="M222" t="n">
+        <v>1.67380304</v>
+      </c>
+      <c r="N222" t="n">
+        <v>2.21622222</v>
+      </c>
+      <c r="O222" t="n">
+        <v>2.883555553333334</v>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMARK</t>
+        </is>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MARK/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MARK/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>DUBK</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>3.976</v>
+      </c>
+      <c r="E223" t="n">
+        <v>3</v>
+      </c>
+      <c r="F223" t="n">
+        <v>10</v>
+      </c>
+      <c r="G223" t="n">
+        <v>13</v>
+      </c>
+      <c r="H223" t="n">
+        <v>8852484</v>
+      </c>
+      <c r="I223" t="n">
+        <v>18.611752</v>
+      </c>
+      <c r="J223" s="8" t="n">
+        <v>54.76179333</v>
+      </c>
+      <c r="K223" t="n">
+        <v>52.71927221</v>
+      </c>
+      <c r="L223" s="8" t="n">
+        <v>0.03327059</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0.30272452</v>
+      </c>
+      <c r="N223" t="n">
+        <v>3.7165</v>
+      </c>
+      <c r="O223" t="n">
+        <v>4.152833333333333</v>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADUBK</t>
+        </is>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DUBK/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DUBK/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>MPHC</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E224" t="n">
+        <v>6</v>
+      </c>
+      <c r="F224" t="n">
+        <v>10</v>
+      </c>
+      <c r="G224" t="n">
+        <v>10</v>
+      </c>
+      <c r="H224" t="n">
+        <v>5657299</v>
+      </c>
+      <c r="I224" t="n">
+        <v>40.35877722</v>
+      </c>
+      <c r="J224" s="8" t="n">
+        <v>59.65363782</v>
+      </c>
+      <c r="K224" t="n">
+        <v>63.42296399</v>
+      </c>
+      <c r="L224" s="8" t="n">
+        <v>0.13340588</v>
+      </c>
+      <c r="M224" t="n">
+        <v>-1.0989011</v>
+      </c>
+      <c r="N224" t="n">
+        <v>1.483666666666667</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1.940166666666667</v>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMPHC</t>
+        </is>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MPHC/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MPHC/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>QEWS</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>17.79</v>
+      </c>
+      <c r="E225" t="n">
+        <v>3</v>
+      </c>
+      <c r="F225" t="n">
+        <v>10</v>
+      </c>
+      <c r="G225" t="n">
+        <v>13</v>
+      </c>
+      <c r="H225" t="n">
+        <v>295949</v>
+      </c>
+      <c r="I225" t="n">
+        <v>22.75671926</v>
+      </c>
+      <c r="J225" s="8" t="n">
+        <v>54.65528578</v>
+      </c>
+      <c r="K225" t="n">
+        <v>50.65975661</v>
+      </c>
+      <c r="L225" s="8" t="n">
+        <v>0.3501471</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1.30980076</v>
+      </c>
+      <c r="N225" t="n">
+        <v>15.98888911166667</v>
+      </c>
+      <c r="O225" t="n">
+        <v>20.205553945</v>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQEWS</t>
+        </is>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QEWS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QEWS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>QGTS</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="E226" t="n">
+        <v>4</v>
+      </c>
+      <c r="F226" t="n">
+        <v>8</v>
+      </c>
+      <c r="G226" t="n">
+        <v>14</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1228372</v>
+      </c>
+      <c r="I226" t="n">
+        <v>27.01722624</v>
+      </c>
+      <c r="J226" s="8" t="n">
+        <v>73.24194253</v>
+      </c>
+      <c r="K226" t="n">
+        <v>72.65300926</v>
+      </c>
+      <c r="L226" s="8" t="n">
+        <v>0.22350588</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0.27322404</v>
+      </c>
+      <c r="N226" t="n">
+        <v>3.125833333333333</v>
+      </c>
+      <c r="O226" t="n">
+        <v>3.721666666666667</v>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGTS</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QGTS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QGTS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>QIIK</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="E227" t="n">
+        <v>3</v>
+      </c>
+      <c r="F227" t="n">
+        <v>9</v>
+      </c>
+      <c r="G227" t="n">
+        <v>14</v>
+      </c>
+      <c r="H227" t="n">
+        <v>270663</v>
+      </c>
+      <c r="I227" t="n">
+        <v>46.66586327</v>
+      </c>
+      <c r="J227" s="8" t="n">
+        <v>69.55701748</v>
+      </c>
+      <c r="K227" t="n">
+        <v>69.55701748</v>
+      </c>
+      <c r="L227" s="8" t="n">
+        <v>0.43997059</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>9.461666666666666</v>
+      </c>
+      <c r="O227" t="n">
+        <v>11.515</v>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIIK</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIIK/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIIK/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>QNNS</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="E228" t="n">
+        <v>2</v>
+      </c>
+      <c r="F228" t="n">
+        <v>8</v>
+      </c>
+      <c r="G228" t="n">
+        <v>16</v>
+      </c>
+      <c r="H228" t="n">
+        <v>872031</v>
+      </c>
+      <c r="I228" t="n">
+        <v>19.31357474</v>
+      </c>
+      <c r="J228" s="8" t="n">
+        <v>77.95711393000001</v>
+      </c>
+      <c r="K228" t="n">
+        <v>73.69162443</v>
+      </c>
+      <c r="L228" s="8" t="n">
+        <v>0.5358794</v>
+      </c>
+      <c r="M228" t="n">
+        <v>3.27408793</v>
+      </c>
+      <c r="N228" t="n">
+        <v>9.069944446666666</v>
+      </c>
+      <c r="O228" t="n">
+        <v>10.26344444666667</v>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQNNS</t>
+        </is>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QNNS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QNNS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>BRES</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>2.899</v>
+      </c>
+      <c r="E229" t="n">
+        <v>2</v>
+      </c>
+      <c r="F229" t="n">
+        <v>9</v>
+      </c>
+      <c r="G229" t="n">
+        <v>15</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1415769</v>
+      </c>
+      <c r="I229" t="n">
+        <v>32.23756858</v>
+      </c>
+      <c r="J229" s="8" t="n">
+        <v>67.26903851</v>
+      </c>
+      <c r="K229" t="n">
+        <v>66.69762528</v>
+      </c>
+      <c r="L229" s="8" t="n">
+        <v>0.09105588000000001</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0.13816926</v>
+      </c>
+      <c r="N229" t="n">
+        <v>2.567055553333333</v>
+      </c>
+      <c r="O229" t="n">
+        <v>3.107888886666666</v>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ABRES</t>
+        </is>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-BRES/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-BRES/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>VFQS</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="E230" t="n">
+        <v>5</v>
+      </c>
+      <c r="F230" t="n">
+        <v>10</v>
+      </c>
+      <c r="G230" t="n">
+        <v>11</v>
+      </c>
+      <c r="H230" t="n">
+        <v>832490</v>
+      </c>
+      <c r="I230" t="n">
+        <v>25.45989161</v>
+      </c>
+      <c r="J230" s="8" t="n">
+        <v>56.25802346</v>
+      </c>
+      <c r="K230" t="n">
+        <v>59.09100319</v>
+      </c>
+      <c r="L230" s="8" t="n">
+        <v>0.05475882</v>
+      </c>
+      <c r="M230" t="n">
+        <v>-0.47619048</v>
+      </c>
+      <c r="N230" t="n">
+        <v>1.729166666666667</v>
+      </c>
+      <c r="O230" t="n">
+        <v>2.020666666666667</v>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AVFQS</t>
+        </is>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-VFQS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-VFQS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>QAMC</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>1.337</v>
+      </c>
+      <c r="E231" t="n">
+        <v>7</v>
+      </c>
+      <c r="F231" t="n">
+        <v>9</v>
+      </c>
+      <c r="G231" t="n">
+        <v>10</v>
+      </c>
+      <c r="H231" t="n">
+        <v>3706281</v>
+      </c>
+      <c r="I231" t="n">
+        <v>26.55702163</v>
+      </c>
+      <c r="J231" s="8" t="n">
+        <v>52.93425574</v>
+      </c>
+      <c r="K231" t="n">
+        <v>52.02924932</v>
+      </c>
+      <c r="L231" s="8" t="n">
+        <v>0.02306765</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0.30007502</v>
+      </c>
+      <c r="N231" t="n">
+        <v>1.154944446666667</v>
+      </c>
+      <c r="O231" t="n">
+        <v>1.550944446666667</v>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQAMC</t>
+        </is>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QAMC/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QAMC/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>AHCS</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="E232" t="n">
+        <v>2</v>
+      </c>
+      <c r="F232" t="n">
+        <v>10</v>
+      </c>
+      <c r="G232" t="n">
+        <v>14</v>
+      </c>
+      <c r="H232" t="n">
+        <v>59800</v>
+      </c>
+      <c r="I232" t="n">
+        <v>39.86961931</v>
+      </c>
+      <c r="J232" s="8" t="n">
+        <v>62.69118853</v>
+      </c>
+      <c r="K232" t="n">
+        <v>66.90534710999999</v>
+      </c>
+      <c r="L232" s="8" t="n">
+        <v>0.04500882</v>
+      </c>
+      <c r="M232" t="n">
+        <v>-0.6718925</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0.81077778</v>
+      </c>
+      <c r="O232" t="n">
+        <v>0.8804444466666667</v>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AAHCS</t>
+        </is>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-AHCS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-AHCS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>UDCD</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="E233" t="n">
+        <v>3</v>
+      </c>
+      <c r="F233" t="n">
+        <v>10</v>
+      </c>
+      <c r="G233" t="n">
+        <v>13</v>
+      </c>
+      <c r="H233" t="n">
+        <v>10112506</v>
+      </c>
+      <c r="I233" t="n">
+        <v>28.77315896</v>
+      </c>
+      <c r="J233" s="8" t="n">
+        <v>68.93122081</v>
+      </c>
+      <c r="K233" t="n">
+        <v>66.52041771</v>
+      </c>
+      <c r="L233" s="8" t="n">
+        <v>0.04392353</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0.8411215</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0.9519444466666668</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1.126111113333333</v>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AUDCD</t>
+        </is>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-UDCD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-UDCD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>MERS</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="E234" t="n">
+        <v>6</v>
+      </c>
+      <c r="F234" t="n">
+        <v>10</v>
+      </c>
+      <c r="G234" t="n">
+        <v>10</v>
+      </c>
+      <c r="H234" t="n">
+        <v>111437</v>
+      </c>
+      <c r="I234" t="n">
+        <v>47.33176218</v>
+      </c>
+      <c r="J234" s="8" t="n">
+        <v>56.73588682</v>
+      </c>
+      <c r="K234" t="n">
+        <v>57.27830969</v>
+      </c>
+      <c r="L234" s="8" t="n">
+        <v>0.30232353</v>
+      </c>
+      <c r="M234" t="n">
+        <v>-0.07429421</v>
+      </c>
+      <c r="N234" t="n">
+        <v>12.62888888666667</v>
+      </c>
+      <c r="O234" t="n">
+        <v>14.37055555333333</v>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMERS</t>
+        </is>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MERS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MERS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>QNCD</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E235" t="n">
+        <v>3</v>
+      </c>
+      <c r="F235" t="n">
+        <v>10</v>
+      </c>
+      <c r="G235" t="n">
+        <v>13</v>
+      </c>
+      <c r="H235" t="n">
+        <v>335005</v>
+      </c>
+      <c r="I235" t="n">
+        <v>25.57208112</v>
+      </c>
+      <c r="J235" s="8" t="n">
+        <v>60.63149693</v>
+      </c>
+      <c r="K235" t="n">
+        <v>62.86972548</v>
+      </c>
+      <c r="L235" s="8" t="n">
+        <v>0.16940588</v>
+      </c>
+      <c r="M235" t="n">
+        <v>-0.42215048</v>
+      </c>
+      <c r="N235" t="n">
+        <v>3.565666666666667</v>
+      </c>
+      <c r="O235" t="n">
+        <v>4.176166666666666</v>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQNCD</t>
+        </is>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QNCD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QNCD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>QIGD</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E236" t="n">
+        <v>4</v>
+      </c>
+      <c r="F236" t="n">
+        <v>10</v>
+      </c>
+      <c r="G236" t="n">
+        <v>12</v>
+      </c>
+      <c r="H236" t="n">
+        <v>518572</v>
+      </c>
+      <c r="I236" t="n">
+        <v>29.53790971</v>
+      </c>
+      <c r="J236" s="8" t="n">
+        <v>60.24942587</v>
+      </c>
+      <c r="K236" t="n">
+        <v>64.02078912</v>
+      </c>
+      <c r="L236" s="8" t="n">
+        <v>0.05793529</v>
+      </c>
+      <c r="M236" t="n">
+        <v>-0.59171598</v>
+      </c>
+      <c r="N236" t="n">
+        <v>1.4945</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1.723666666666667</v>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIGD</t>
+        </is>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIGD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIGD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>GWCS</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>3.248</v>
+      </c>
+      <c r="E237" t="n">
+        <v>2</v>
+      </c>
+      <c r="F237" t="n">
+        <v>10</v>
+      </c>
+      <c r="G237" t="n">
+        <v>14</v>
+      </c>
+      <c r="H237" t="n">
+        <v>612995</v>
+      </c>
+      <c r="I237" t="n">
+        <v>23.06628059</v>
+      </c>
+      <c r="J237" s="8" t="n">
+        <v>62.56452145</v>
+      </c>
+      <c r="K237" t="n">
+        <v>57.9409177</v>
+      </c>
+      <c r="L237" s="8" t="n">
+        <v>0.12364412</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1.31004367</v>
+      </c>
+      <c r="N237" t="n">
+        <v>2.902833333333333</v>
+      </c>
+      <c r="O237" t="n">
+        <v>3.306166666666667</v>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGWCS</t>
+        </is>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-GWCS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-GWCS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>MCCS</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>4.096</v>
+      </c>
+      <c r="E238" t="n">
+        <v>5</v>
+      </c>
+      <c r="F238" t="n">
+        <v>10</v>
+      </c>
+      <c r="G238" t="n">
+        <v>11</v>
+      </c>
+      <c r="H238" t="n">
+        <v>60866</v>
+      </c>
+      <c r="I238" t="n">
+        <v>9.860099780000001</v>
+      </c>
+      <c r="J238" s="8" t="n">
+        <v>57.67267097</v>
+      </c>
+      <c r="K238" t="n">
+        <v>58.10379028</v>
+      </c>
+      <c r="L238" s="8" t="n">
+        <v>0.15714706</v>
+      </c>
+      <c r="M238" t="n">
+        <v>-0.09756098000000001</v>
+      </c>
+      <c r="N238" t="n">
+        <v>3.533666666666667</v>
+      </c>
+      <c r="O238" t="n">
+        <v>4.595166666666667</v>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMCCS</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MCCS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MCCS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>QFBQ</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>1.362</v>
+      </c>
+      <c r="E239" t="n">
+        <v>2</v>
+      </c>
+      <c r="F239" t="n">
+        <v>9</v>
+      </c>
+      <c r="G239" t="n">
+        <v>15</v>
+      </c>
+      <c r="H239" t="n">
+        <v>2068238</v>
+      </c>
+      <c r="I239" t="n">
+        <v>17.74054313</v>
+      </c>
+      <c r="J239" s="8" t="n">
+        <v>57.93623722</v>
+      </c>
+      <c r="K239" t="n">
+        <v>57.44294551</v>
+      </c>
+      <c r="L239" s="8" t="n">
+        <v>0.01635294</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0.14705882</v>
+      </c>
+      <c r="N239" t="n">
+        <v>1.23072222</v>
+      </c>
+      <c r="O239" t="n">
+        <v>1.430555553333333</v>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQFBQ</t>
+        </is>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QFBQ/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QFBQ/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>QIMD</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>3</v>
+      </c>
+      <c r="E240" t="n">
+        <v>4</v>
+      </c>
+      <c r="F240" t="n">
+        <v>10</v>
+      </c>
+      <c r="G240" t="n">
+        <v>12</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1354000</v>
+      </c>
+      <c r="I240" t="n">
+        <v>22.29607477</v>
+      </c>
+      <c r="J240" s="8" t="n">
+        <v>51.17573561</v>
+      </c>
+      <c r="K240" t="n">
+        <v>51.17573561</v>
+      </c>
+      <c r="L240" s="8" t="n">
+        <v>0.01993529</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O240" t="n">
+        <v>3.055</v>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIMD</t>
+        </is>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIMD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIMD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>SIIS</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="E241" t="n">
+        <v>4</v>
+      </c>
+      <c r="F241" t="n">
+        <v>10</v>
+      </c>
+      <c r="G241" t="n">
+        <v>12</v>
+      </c>
+      <c r="H241" t="n">
+        <v>919477</v>
+      </c>
+      <c r="I241" t="n">
+        <v>21.72154662</v>
+      </c>
+      <c r="J241" s="8" t="n">
+        <v>55.40876255</v>
+      </c>
+      <c r="K241" t="n">
+        <v>56.30002652</v>
+      </c>
+      <c r="L241" s="8" t="n">
+        <v>0.01609118</v>
+      </c>
+      <c r="M241" t="n">
+        <v>-0.14513788</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0.6218888866666666</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0.7337222200000001</v>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ASIIS</t>
+        </is>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-SIIS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-SIIS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>NLCS</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="E242" t="n">
+        <v>2</v>
+      </c>
+      <c r="F242" t="n">
+        <v>10</v>
+      </c>
+      <c r="G242" t="n">
+        <v>14</v>
+      </c>
+      <c r="H242" t="n">
+        <v>238404</v>
+      </c>
+      <c r="I242" t="n">
+        <v>38.791723</v>
+      </c>
+      <c r="J242" s="8" t="n">
+        <v>67.64967964</v>
+      </c>
+      <c r="K242" t="n">
+        <v>67.64967964</v>
+      </c>
+      <c r="L242" s="8" t="n">
+        <v>0.05413529</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0.6856111133333332</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0.7571111133333334</v>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ANLCS</t>
+        </is>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-NLCS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-NLCS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>QOIS</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E243" t="n">
+        <v>2</v>
+      </c>
+      <c r="F243" t="n">
+        <v>9</v>
+      </c>
+      <c r="G243" t="n">
+        <v>15</v>
+      </c>
+      <c r="H243" t="n">
+        <v>791868</v>
+      </c>
+      <c r="I243" t="n">
+        <v>26.17417301</v>
+      </c>
+      <c r="J243" s="8" t="n">
+        <v>54.44939123</v>
+      </c>
+      <c r="K243" t="n">
+        <v>51.92909077</v>
+      </c>
+      <c r="L243" s="8" t="n">
+        <v>0.01825</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0.65645514</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0.7915000000000001</v>
+      </c>
+      <c r="O243" t="n">
+        <v>1.048166666666667</v>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQOIS</t>
+        </is>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QOIS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QOIS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>IHGS</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E244" t="n">
+        <v>6</v>
+      </c>
+      <c r="F244" t="n">
+        <v>10</v>
+      </c>
+      <c r="G244" t="n">
+        <v>10</v>
+      </c>
+      <c r="H244" t="n">
+        <v>302083</v>
+      </c>
+      <c r="I244" t="n">
+        <v>25.31666481</v>
+      </c>
+      <c r="J244" s="8" t="n">
+        <v>56.6137683</v>
+      </c>
+      <c r="K244" t="n">
+        <v>53.24577006</v>
+      </c>
+      <c r="L244" s="8" t="n">
+        <v>0.15808824</v>
+      </c>
+      <c r="M244" t="n">
+        <v>1.25957026</v>
+      </c>
+      <c r="N244" t="n">
+        <v>3.520611113333333</v>
+      </c>
+      <c r="O244" t="n">
+        <v>4.50877778</v>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIHGS</t>
+        </is>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-IHGS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-IHGS/technicals/</t>
         </is>
       </c>
     </row>
@@ -45420,7 +50441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48099,7 +53120,7 @@
     </row>
     <row r="41">
       <c r="A41" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -48165,7 +53186,7 @@
     </row>
     <row r="42">
       <c r="A42" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -48231,7 +53252,7 @@
     </row>
     <row r="43">
       <c r="A43" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -48297,7 +53318,7 @@
     </row>
     <row r="44">
       <c r="A44" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -48363,7 +53384,7 @@
     </row>
     <row r="45">
       <c r="A45" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -48429,7 +53450,7 @@
     </row>
     <row r="46">
       <c r="A46" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -48488,6 +53509,336 @@
         </is>
       </c>
       <c r="R46" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QGMD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>IQCD</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="E47" t="n">
+        <v>13</v>
+      </c>
+      <c r="F47" t="n">
+        <v>9</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4</v>
+      </c>
+      <c r="H47" t="n">
+        <v>572046</v>
+      </c>
+      <c r="I47" t="n">
+        <v>16.44564448</v>
+      </c>
+      <c r="J47" s="8" t="n">
+        <v>48.81505353</v>
+      </c>
+      <c r="K47" t="n">
+        <v>48.47707855</v>
+      </c>
+      <c r="L47" s="8" t="n">
+        <v>-0.02029412</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.07949125999999999</v>
+      </c>
+      <c r="N47" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="O47" t="n">
+        <v>13.795</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIQCD</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-IQCD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-IQCD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>IGRD</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2.019</v>
+      </c>
+      <c r="E48" t="n">
+        <v>15</v>
+      </c>
+      <c r="F48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2662461</v>
+      </c>
+      <c r="I48" t="n">
+        <v>9.762345460000001</v>
+      </c>
+      <c r="J48" s="8" t="n">
+        <v>47.01122159</v>
+      </c>
+      <c r="K48" t="n">
+        <v>43.61666428</v>
+      </c>
+      <c r="L48" s="8" t="n">
+        <v>-0.01703235</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.59790732</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.966666666666667</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2.162833333333333</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIGRD</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-IGRD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-IGRD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MEZA</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2.771</v>
+      </c>
+      <c r="E49" t="n">
+        <v>10</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5</v>
+      </c>
+      <c r="H49" t="n">
+        <v>131761</v>
+      </c>
+      <c r="I49" t="n">
+        <v>10.92115156</v>
+      </c>
+      <c r="J49" s="8" t="n">
+        <v>45.05310778</v>
+      </c>
+      <c r="K49" t="n">
+        <v>45.43441136</v>
+      </c>
+      <c r="L49" s="8" t="n">
+        <v>-0.02702353</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.07212405</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.712555553333333</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2.972888886666667</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMEZA</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MEZA/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MEZA/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MKDM</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>4.978</v>
+      </c>
+      <c r="E50" t="n">
+        <v>14</v>
+      </c>
+      <c r="F50" t="n">
+        <v>10</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>31046</v>
+      </c>
+      <c r="I50" t="n">
+        <v>12.77125681</v>
+      </c>
+      <c r="J50" s="8" t="n">
+        <v>40.73351068</v>
+      </c>
+      <c r="K50" t="n">
+        <v>42.09389</v>
+      </c>
+      <c r="L50" s="8" t="n">
+        <v>-0.06362353</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.30042059</v>
+      </c>
+      <c r="N50" t="n">
+        <v>4.885</v>
+      </c>
+      <c r="O50" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMKDM</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MKDM/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MKDM/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>QGMD</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1.401</v>
+      </c>
+      <c r="E51" t="n">
+        <v>14</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" t="n">
+        <v>772492</v>
+      </c>
+      <c r="I51" t="n">
+        <v>26.73563303</v>
+      </c>
+      <c r="J51" s="8" t="n">
+        <v>38.70861754</v>
+      </c>
+      <c r="K51" t="n">
+        <v>38.51523169</v>
+      </c>
+      <c r="L51" s="8" t="n">
+        <v>-0.06387941</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.07142857</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.279888886666667</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.70522222</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGMD</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QGMD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
         <is>
           <t>https://www.tradingview.com/symbols/QSE-QGMD/technicals/</t>
         </is>
@@ -48527,7 +53878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R88"/>
+  <dimension ref="A1:R128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51468,7 +56819,7 @@
     </row>
     <row r="45">
       <c r="A45" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -51534,7 +56885,7 @@
     </row>
     <row r="46">
       <c r="A46" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -51600,7 +56951,7 @@
     </row>
     <row r="47">
       <c r="A47" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -51666,7 +57017,7 @@
     </row>
     <row r="48">
       <c r="A48" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -51732,7 +57083,7 @@
     </row>
     <row r="49">
       <c r="A49" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -51798,7 +57149,7 @@
     </row>
     <row r="50">
       <c r="A50" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -51864,7 +57215,7 @@
     </row>
     <row r="51">
       <c r="A51" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -51930,7 +57281,7 @@
     </row>
     <row r="52">
       <c r="A52" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -51996,7 +57347,7 @@
     </row>
     <row r="53">
       <c r="A53" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -52062,7 +57413,7 @@
     </row>
     <row r="54">
       <c r="A54" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -52128,7 +57479,7 @@
     </row>
     <row r="55">
       <c r="A55" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -52194,7 +57545,7 @@
     </row>
     <row r="56">
       <c r="A56" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -52260,7 +57611,7 @@
     </row>
     <row r="57">
       <c r="A57" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -52326,7 +57677,7 @@
     </row>
     <row r="58">
       <c r="A58" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -52392,7 +57743,7 @@
     </row>
     <row r="59">
       <c r="A59" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -52458,7 +57809,7 @@
     </row>
     <row r="60">
       <c r="A60" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -52524,7 +57875,7 @@
     </row>
     <row r="61">
       <c r="A61" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -52590,7 +57941,7 @@
     </row>
     <row r="62">
       <c r="A62" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -52656,7 +58007,7 @@
     </row>
     <row r="63">
       <c r="A63" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -52722,7 +58073,7 @@
     </row>
     <row r="64">
       <c r="A64" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -52788,7 +58139,7 @@
     </row>
     <row r="65">
       <c r="A65" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -52854,7 +58205,7 @@
     </row>
     <row r="66">
       <c r="A66" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -52920,7 +58271,7 @@
     </row>
     <row r="67">
       <c r="A67" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -52986,7 +58337,7 @@
     </row>
     <row r="68">
       <c r="A68" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -53052,7 +58403,7 @@
     </row>
     <row r="69">
       <c r="A69" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -53118,7 +58469,7 @@
     </row>
     <row r="70">
       <c r="A70" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -53184,7 +58535,7 @@
     </row>
     <row r="71">
       <c r="A71" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -53250,7 +58601,7 @@
     </row>
     <row r="72">
       <c r="A72" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -53316,7 +58667,7 @@
     </row>
     <row r="73">
       <c r="A73" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -53382,7 +58733,7 @@
     </row>
     <row r="74">
       <c r="A74" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -53448,7 +58799,7 @@
     </row>
     <row r="75">
       <c r="A75" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -53514,7 +58865,7 @@
     </row>
     <row r="76">
       <c r="A76" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -53580,7 +58931,7 @@
     </row>
     <row r="77">
       <c r="A77" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -53646,7 +58997,7 @@
     </row>
     <row r="78">
       <c r="A78" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -53712,7 +59063,7 @@
     </row>
     <row r="79">
       <c r="A79" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -53778,7 +59129,7 @@
     </row>
     <row r="80">
       <c r="A80" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -53844,7 +59195,7 @@
     </row>
     <row r="81">
       <c r="A81" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -53910,7 +59261,7 @@
     </row>
     <row r="82">
       <c r="A82" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -53976,7 +59327,7 @@
     </row>
     <row r="83">
       <c r="A83" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -54042,7 +59393,7 @@
     </row>
     <row r="84">
       <c r="A84" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -54108,7 +59459,7 @@
     </row>
     <row r="85">
       <c r="A85" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -54174,7 +59525,7 @@
     </row>
     <row r="86">
       <c r="A86" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -54240,11 +59591,11 @@
     </row>
     <row r="87">
       <c r="A87" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45305.98775648148</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BEMA</t>
+          <t>GNRI</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -54253,64 +59604,62 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>4</v>
+        <v>10509.85</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
         <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>14</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>20.97643757</v>
+        <v>23.09169733</v>
       </c>
       <c r="J87" s="8" t="n">
-        <v>61.11081012</v>
+        <v>59.31143321</v>
       </c>
       <c r="K87" t="n">
-        <v>61.11081012</v>
+        <v>57.50038025</v>
       </c>
       <c r="L87" s="8" t="n">
-        <v>0.15620294</v>
+        <v>264.22190294</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>0.42147044</v>
       </c>
       <c r="N87" t="n">
-        <v>3.567555553333333</v>
+        <v>9380.32072222</v>
       </c>
       <c r="O87" t="n">
-        <v>4.20922222</v>
+        <v>11556.63863888667</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ABEMA</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGNRI</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-BEMA/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-GNRI/financials-overview/</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-BEMA/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-GNRI/technicals/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="9" t="n">
-        <v>45305.98775647694</v>
+        <v>45306.4923882025</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GNRI</t>
+          <t>QIBK</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -54319,10 +59668,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>10509.85</v>
+        <v>20.37</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
         <v>10</v>
@@ -54330,41 +59679,2683 @@
       <c r="G88" t="n">
         <v>12</v>
       </c>
-      <c r="H88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>561815</v>
+      </c>
       <c r="I88" t="n">
-        <v>23.09169733</v>
+        <v>26.05063886</v>
       </c>
       <c r="J88" s="8" t="n">
-        <v>59.31143321</v>
+        <v>56.33853687</v>
       </c>
       <c r="K88" t="n">
-        <v>57.50038025</v>
+        <v>54.63828582</v>
       </c>
       <c r="L88" s="8" t="n">
-        <v>264.22190294</v>
+        <v>0.68367651</v>
       </c>
       <c r="M88" t="n">
-        <v>0.42147044</v>
+        <v>0.59259259</v>
       </c>
       <c r="N88" t="n">
-        <v>9380.32072222</v>
+        <v>16.86166788833333</v>
       </c>
       <c r="O88" t="n">
-        <v>11556.63863888667</v>
+        <v>24.26833272166667</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGNRI</t>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIBK</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-GNRI/financials-overview/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIBK/financials-overview/</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>https://www.tradingview.com/symbols/QSE-GNRI/technicals/</t>
+          <t>https://www.tradingview.com/symbols/QSE-QIBK/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ORDS</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="E89" t="n">
+        <v>8</v>
+      </c>
+      <c r="F89" t="n">
+        <v>9</v>
+      </c>
+      <c r="G89" t="n">
+        <v>9</v>
+      </c>
+      <c r="H89" t="n">
+        <v>557652</v>
+      </c>
+      <c r="I89" t="n">
+        <v>31.33913125</v>
+      </c>
+      <c r="J89" s="8" t="n">
+        <v>49.79504553</v>
+      </c>
+      <c r="K89" t="n">
+        <v>52.79037672</v>
+      </c>
+      <c r="L89" s="8" t="n">
+        <v>0.09735293</v>
+      </c>
+      <c r="M89" t="n">
+        <v>-1.32200189</v>
+      </c>
+      <c r="N89" t="n">
+        <v>9.578888886666666</v>
+      </c>
+      <c r="O89" t="n">
+        <v>12.31055555333334</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AORDS</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-ORDS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-ORDS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ERES</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="E90" t="n">
+        <v>8</v>
+      </c>
+      <c r="F90" t="n">
+        <v>10</v>
+      </c>
+      <c r="G90" t="n">
+        <v>8</v>
+      </c>
+      <c r="H90" t="n">
+        <v>4632819</v>
+      </c>
+      <c r="I90" t="n">
+        <v>21.016581</v>
+      </c>
+      <c r="J90" s="8" t="n">
+        <v>53.18119471</v>
+      </c>
+      <c r="K90" t="n">
+        <v>57.65425119</v>
+      </c>
+      <c r="L90" s="8" t="n">
+        <v>0.03395</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-1.00783875</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.7944444466666667</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.9081111133333334</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AERES</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-ERES/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-ERES/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>MARK</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>2.612</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>10</v>
+      </c>
+      <c r="G91" t="n">
+        <v>15</v>
+      </c>
+      <c r="H91" t="n">
+        <v>15343414</v>
+      </c>
+      <c r="I91" t="n">
+        <v>18.01716431</v>
+      </c>
+      <c r="J91" s="8" t="n">
+        <v>63.4955174</v>
+      </c>
+      <c r="K91" t="n">
+        <v>59.47599026</v>
+      </c>
+      <c r="L91" s="8" t="n">
+        <v>0.06179118</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1.67380304</v>
+      </c>
+      <c r="N91" t="n">
+        <v>2.21622222</v>
+      </c>
+      <c r="O91" t="n">
+        <v>2.883555553333334</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMARK</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MARK/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MARK/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>CBQK</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>5.564</v>
+      </c>
+      <c r="E92" t="n">
+        <v>10</v>
+      </c>
+      <c r="F92" t="n">
+        <v>8</v>
+      </c>
+      <c r="G92" t="n">
+        <v>8</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1208742</v>
+      </c>
+      <c r="I92" t="n">
+        <v>24.00943115</v>
+      </c>
+      <c r="J92" s="8" t="n">
+        <v>48.26605853</v>
+      </c>
+      <c r="K92" t="n">
+        <v>46.29322096</v>
+      </c>
+      <c r="L92" s="8" t="n">
+        <v>0.11870588</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.79710145</v>
+      </c>
+      <c r="N92" t="n">
+        <v>4.855555553333333</v>
+      </c>
+      <c r="O92" t="n">
+        <v>6.872222219999998</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ACBQK</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-CBQK/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-CBQK/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>DUBK</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>3.976</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" t="n">
+        <v>10</v>
+      </c>
+      <c r="G93" t="n">
+        <v>13</v>
+      </c>
+      <c r="H93" t="n">
+        <v>8852484</v>
+      </c>
+      <c r="I93" t="n">
+        <v>18.611752</v>
+      </c>
+      <c r="J93" s="8" t="n">
+        <v>54.76179333</v>
+      </c>
+      <c r="K93" t="n">
+        <v>52.71927221</v>
+      </c>
+      <c r="L93" s="8" t="n">
+        <v>0.03327059</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.30272452</v>
+      </c>
+      <c r="N93" t="n">
+        <v>3.7165</v>
+      </c>
+      <c r="O93" t="n">
+        <v>4.152833333333333</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADUBK</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DUBK/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DUBK/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>MPHC</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E94" t="n">
+        <v>6</v>
+      </c>
+      <c r="F94" t="n">
+        <v>10</v>
+      </c>
+      <c r="G94" t="n">
+        <v>10</v>
+      </c>
+      <c r="H94" t="n">
+        <v>5657299</v>
+      </c>
+      <c r="I94" t="n">
+        <v>40.35877722</v>
+      </c>
+      <c r="J94" s="8" t="n">
+        <v>59.65363782</v>
+      </c>
+      <c r="K94" t="n">
+        <v>63.42296399</v>
+      </c>
+      <c r="L94" s="8" t="n">
+        <v>0.13340588</v>
+      </c>
+      <c r="M94" t="n">
+        <v>-1.0989011</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1.483666666666667</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.940166666666667</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMPHC</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MPHC/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MPHC/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>QEWS</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>17.79</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3</v>
+      </c>
+      <c r="F95" t="n">
+        <v>10</v>
+      </c>
+      <c r="G95" t="n">
+        <v>13</v>
+      </c>
+      <c r="H95" t="n">
+        <v>295949</v>
+      </c>
+      <c r="I95" t="n">
+        <v>22.75671926</v>
+      </c>
+      <c r="J95" s="8" t="n">
+        <v>54.65528578</v>
+      </c>
+      <c r="K95" t="n">
+        <v>50.65975661</v>
+      </c>
+      <c r="L95" s="8" t="n">
+        <v>0.3501471</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.30980076</v>
+      </c>
+      <c r="N95" t="n">
+        <v>15.98888911166667</v>
+      </c>
+      <c r="O95" t="n">
+        <v>20.205553945</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQEWS</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QEWS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QEWS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>QGTS</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4</v>
+      </c>
+      <c r="F96" t="n">
+        <v>8</v>
+      </c>
+      <c r="G96" t="n">
+        <v>14</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1228372</v>
+      </c>
+      <c r="I96" t="n">
+        <v>27.01722624</v>
+      </c>
+      <c r="J96" s="8" t="n">
+        <v>73.24194253</v>
+      </c>
+      <c r="K96" t="n">
+        <v>72.65300926</v>
+      </c>
+      <c r="L96" s="8" t="n">
+        <v>0.22350588</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.27322404</v>
+      </c>
+      <c r="N96" t="n">
+        <v>3.125833333333333</v>
+      </c>
+      <c r="O96" t="n">
+        <v>3.721666666666667</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGTS</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QGTS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QGTS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>QFLS</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>STRONG_SELL</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="E97" t="n">
+        <v>17</v>
+      </c>
+      <c r="F97" t="n">
+        <v>9</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>184972</v>
+      </c>
+      <c r="I97" t="n">
+        <v>25.19148594</v>
+      </c>
+      <c r="J97" s="8" t="n">
+        <v>47.50895867</v>
+      </c>
+      <c r="K97" t="n">
+        <v>49.43713951</v>
+      </c>
+      <c r="L97" s="8" t="n">
+        <v>0.09805904999999999</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.31308704</v>
+      </c>
+      <c r="N97" t="n">
+        <v>15.07666666666667</v>
+      </c>
+      <c r="O97" t="n">
+        <v>17.625</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQFLS</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QFLS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QFLS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>QIIK</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3</v>
+      </c>
+      <c r="F98" t="n">
+        <v>9</v>
+      </c>
+      <c r="G98" t="n">
+        <v>14</v>
+      </c>
+      <c r="H98" t="n">
+        <v>270663</v>
+      </c>
+      <c r="I98" t="n">
+        <v>46.66586327</v>
+      </c>
+      <c r="J98" s="8" t="n">
+        <v>69.55701748</v>
+      </c>
+      <c r="K98" t="n">
+        <v>69.55701748</v>
+      </c>
+      <c r="L98" s="8" t="n">
+        <v>0.43997059</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>9.461666666666666</v>
+      </c>
+      <c r="O98" t="n">
+        <v>11.515</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIIK</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIIK/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIIK/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>QNNS</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2</v>
+      </c>
+      <c r="F99" t="n">
+        <v>8</v>
+      </c>
+      <c r="G99" t="n">
+        <v>16</v>
+      </c>
+      <c r="H99" t="n">
+        <v>872031</v>
+      </c>
+      <c r="I99" t="n">
+        <v>19.31357474</v>
+      </c>
+      <c r="J99" s="8" t="n">
+        <v>77.95711393000001</v>
+      </c>
+      <c r="K99" t="n">
+        <v>73.69162443</v>
+      </c>
+      <c r="L99" s="8" t="n">
+        <v>0.5358794</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3.27408793</v>
+      </c>
+      <c r="N99" t="n">
+        <v>9.069944446666666</v>
+      </c>
+      <c r="O99" t="n">
+        <v>10.26344444666667</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQNNS</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QNNS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QNNS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>BRES</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2.899</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2</v>
+      </c>
+      <c r="F100" t="n">
+        <v>9</v>
+      </c>
+      <c r="G100" t="n">
+        <v>15</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1415769</v>
+      </c>
+      <c r="I100" t="n">
+        <v>32.23756858</v>
+      </c>
+      <c r="J100" s="8" t="n">
+        <v>67.26903851</v>
+      </c>
+      <c r="K100" t="n">
+        <v>66.69762528</v>
+      </c>
+      <c r="L100" s="8" t="n">
+        <v>0.09105588000000001</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.13816926</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2.567055553333333</v>
+      </c>
+      <c r="O100" t="n">
+        <v>3.107888886666666</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ABRES</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-BRES/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-BRES/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ABQK</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>3.795</v>
+      </c>
+      <c r="E101" t="n">
+        <v>12</v>
+      </c>
+      <c r="F101" t="n">
+        <v>10</v>
+      </c>
+      <c r="G101" t="n">
+        <v>4</v>
+      </c>
+      <c r="H101" t="n">
+        <v>914</v>
+      </c>
+      <c r="I101" t="n">
+        <v>23.89252465</v>
+      </c>
+      <c r="J101" s="8" t="n">
+        <v>47.29656474</v>
+      </c>
+      <c r="K101" t="n">
+        <v>46.47457398</v>
+      </c>
+      <c r="L101" s="8" t="n">
+        <v>0.10726765</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.3968254</v>
+      </c>
+      <c r="N101" t="n">
+        <v>3.457</v>
+      </c>
+      <c r="O101" t="n">
+        <v>3.911666666666667</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AABQK</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-ABQK/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-ABQK/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>QATI</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>2.406</v>
+      </c>
+      <c r="E102" t="n">
+        <v>13</v>
+      </c>
+      <c r="F102" t="n">
+        <v>10</v>
+      </c>
+      <c r="G102" t="n">
+        <v>3</v>
+      </c>
+      <c r="H102" t="n">
+        <v>41582</v>
+      </c>
+      <c r="I102" t="n">
+        <v>30.81808464</v>
+      </c>
+      <c r="J102" s="8" t="n">
+        <v>46.57446557</v>
+      </c>
+      <c r="K102" t="n">
+        <v>47.84047385</v>
+      </c>
+      <c r="L102" s="8" t="n">
+        <v>0.03164706</v>
+      </c>
+      <c r="M102" t="n">
+        <v>-0.41390728</v>
+      </c>
+      <c r="N102" t="n">
+        <v>2.197055553333333</v>
+      </c>
+      <c r="O102" t="n">
+        <v>2.79472222</v>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQATI</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QATI/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QATI/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>VFQS</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="E103" t="n">
+        <v>5</v>
+      </c>
+      <c r="F103" t="n">
+        <v>10</v>
+      </c>
+      <c r="G103" t="n">
+        <v>11</v>
+      </c>
+      <c r="H103" t="n">
+        <v>832490</v>
+      </c>
+      <c r="I103" t="n">
+        <v>25.45989161</v>
+      </c>
+      <c r="J103" s="8" t="n">
+        <v>56.25802346</v>
+      </c>
+      <c r="K103" t="n">
+        <v>59.09100319</v>
+      </c>
+      <c r="L103" s="8" t="n">
+        <v>0.05475882</v>
+      </c>
+      <c r="M103" t="n">
+        <v>-0.47619048</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1.729166666666667</v>
+      </c>
+      <c r="O103" t="n">
+        <v>2.020666666666667</v>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AVFQS</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-VFQS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-VFQS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>QAMC</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>1.337</v>
+      </c>
+      <c r="E104" t="n">
+        <v>7</v>
+      </c>
+      <c r="F104" t="n">
+        <v>9</v>
+      </c>
+      <c r="G104" t="n">
+        <v>10</v>
+      </c>
+      <c r="H104" t="n">
+        <v>3706281</v>
+      </c>
+      <c r="I104" t="n">
+        <v>26.55702163</v>
+      </c>
+      <c r="J104" s="8" t="n">
+        <v>52.93425574</v>
+      </c>
+      <c r="K104" t="n">
+        <v>52.02924932</v>
+      </c>
+      <c r="L104" s="8" t="n">
+        <v>0.02306765</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.30007502</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1.154944446666667</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1.550944446666667</v>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQAMC</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QAMC/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QAMC/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>AHCS</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2</v>
+      </c>
+      <c r="F105" t="n">
+        <v>10</v>
+      </c>
+      <c r="G105" t="n">
+        <v>14</v>
+      </c>
+      <c r="H105" t="n">
+        <v>59800</v>
+      </c>
+      <c r="I105" t="n">
+        <v>39.86961931</v>
+      </c>
+      <c r="J105" s="8" t="n">
+        <v>62.69118853</v>
+      </c>
+      <c r="K105" t="n">
+        <v>66.90534710999999</v>
+      </c>
+      <c r="L105" s="8" t="n">
+        <v>0.04500882</v>
+      </c>
+      <c r="M105" t="n">
+        <v>-0.6718925</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.81077778</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.8804444466666667</v>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AAHCS</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-AHCS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-AHCS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>DHBK</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>1.717</v>
+      </c>
+      <c r="E106" t="n">
+        <v>8</v>
+      </c>
+      <c r="F106" t="n">
+        <v>10</v>
+      </c>
+      <c r="G106" t="n">
+        <v>8</v>
+      </c>
+      <c r="H106" t="n">
+        <v>719586</v>
+      </c>
+      <c r="I106" t="n">
+        <v>26.95982348</v>
+      </c>
+      <c r="J106" s="8" t="n">
+        <v>51.45922602</v>
+      </c>
+      <c r="K106" t="n">
+        <v>53.80879589</v>
+      </c>
+      <c r="L106" s="8" t="n">
+        <v>0.05825588</v>
+      </c>
+      <c r="M106" t="n">
+        <v>-0.6940428</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1.5055</v>
+      </c>
+      <c r="O106" t="n">
+        <v>2.024333333333333</v>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADHBK</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DHBK/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DHBK/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>GISS</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>STRONG_BUY</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>2.832</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>9</v>
+      </c>
+      <c r="G107" t="n">
+        <v>16</v>
+      </c>
+      <c r="H107" t="n">
+        <v>5583698</v>
+      </c>
+      <c r="I107" t="n">
+        <v>15.788429</v>
+      </c>
+      <c r="J107" s="8" t="n">
+        <v>64.59400302</v>
+      </c>
+      <c r="K107" t="n">
+        <v>61.92454092</v>
+      </c>
+      <c r="L107" s="8" t="n">
+        <v>0.06136471</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.96256684</v>
+      </c>
+      <c r="N107" t="n">
+        <v>2.482166666666667</v>
+      </c>
+      <c r="O107" t="n">
+        <v>2.9295</v>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGISS</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-GISS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-GISS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ZHCD</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="E108" t="n">
+        <v>10</v>
+      </c>
+      <c r="F108" t="n">
+        <v>10</v>
+      </c>
+      <c r="G108" t="n">
+        <v>6</v>
+      </c>
+      <c r="H108" t="n">
+        <v>62459</v>
+      </c>
+      <c r="I108" t="n">
+        <v>21.83382696</v>
+      </c>
+      <c r="J108" s="8" t="n">
+        <v>50.19302976</v>
+      </c>
+      <c r="K108" t="n">
+        <v>50.19302976</v>
+      </c>
+      <c r="L108" s="8" t="n">
+        <v>0.1825</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>12.98666666666666</v>
+      </c>
+      <c r="O108" t="n">
+        <v>14.01333333333334</v>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AZHCD</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-ZHCD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-ZHCD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>UDCD</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3</v>
+      </c>
+      <c r="F109" t="n">
+        <v>10</v>
+      </c>
+      <c r="G109" t="n">
+        <v>13</v>
+      </c>
+      <c r="H109" t="n">
+        <v>10112506</v>
+      </c>
+      <c r="I109" t="n">
+        <v>28.77315896</v>
+      </c>
+      <c r="J109" s="8" t="n">
+        <v>68.93122081</v>
+      </c>
+      <c r="K109" t="n">
+        <v>66.52041771</v>
+      </c>
+      <c r="L109" s="8" t="n">
+        <v>0.04392353</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.8411215</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.9519444466666668</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1.126111113333333</v>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AUDCD</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-UDCD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-UDCD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>MERS</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="E110" t="n">
+        <v>6</v>
+      </c>
+      <c r="F110" t="n">
+        <v>10</v>
+      </c>
+      <c r="G110" t="n">
+        <v>10</v>
+      </c>
+      <c r="H110" t="n">
+        <v>111437</v>
+      </c>
+      <c r="I110" t="n">
+        <v>47.33176218</v>
+      </c>
+      <c r="J110" s="8" t="n">
+        <v>56.73588682</v>
+      </c>
+      <c r="K110" t="n">
+        <v>57.27830969</v>
+      </c>
+      <c r="L110" s="8" t="n">
+        <v>0.30232353</v>
+      </c>
+      <c r="M110" t="n">
+        <v>-0.07429421</v>
+      </c>
+      <c r="N110" t="n">
+        <v>12.62888888666667</v>
+      </c>
+      <c r="O110" t="n">
+        <v>14.37055555333333</v>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMERS</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MERS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MERS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>QNCD</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3</v>
+      </c>
+      <c r="F111" t="n">
+        <v>10</v>
+      </c>
+      <c r="G111" t="n">
+        <v>13</v>
+      </c>
+      <c r="H111" t="n">
+        <v>335005</v>
+      </c>
+      <c r="I111" t="n">
+        <v>25.57208112</v>
+      </c>
+      <c r="J111" s="8" t="n">
+        <v>60.63149693</v>
+      </c>
+      <c r="K111" t="n">
+        <v>62.86972548</v>
+      </c>
+      <c r="L111" s="8" t="n">
+        <v>0.16940588</v>
+      </c>
+      <c r="M111" t="n">
+        <v>-0.42215048</v>
+      </c>
+      <c r="N111" t="n">
+        <v>3.565666666666667</v>
+      </c>
+      <c r="O111" t="n">
+        <v>4.176166666666666</v>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQNCD</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QNCD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QNCD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>QIGD</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>10</v>
+      </c>
+      <c r="G112" t="n">
+        <v>12</v>
+      </c>
+      <c r="H112" t="n">
+        <v>518572</v>
+      </c>
+      <c r="I112" t="n">
+        <v>29.53790971</v>
+      </c>
+      <c r="J112" s="8" t="n">
+        <v>60.24942587</v>
+      </c>
+      <c r="K112" t="n">
+        <v>64.02078912</v>
+      </c>
+      <c r="L112" s="8" t="n">
+        <v>0.05793529</v>
+      </c>
+      <c r="M112" t="n">
+        <v>-0.59171598</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1.4945</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1.723666666666667</v>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIGD</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIGD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIGD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>GWCS</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>3.248</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>10</v>
+      </c>
+      <c r="G113" t="n">
+        <v>14</v>
+      </c>
+      <c r="H113" t="n">
+        <v>612995</v>
+      </c>
+      <c r="I113" t="n">
+        <v>23.06628059</v>
+      </c>
+      <c r="J113" s="8" t="n">
+        <v>62.56452145</v>
+      </c>
+      <c r="K113" t="n">
+        <v>57.9409177</v>
+      </c>
+      <c r="L113" s="8" t="n">
+        <v>0.12364412</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1.31004367</v>
+      </c>
+      <c r="N113" t="n">
+        <v>2.902833333333333</v>
+      </c>
+      <c r="O113" t="n">
+        <v>3.306166666666667</v>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGWCS</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-GWCS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-GWCS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>MCCS</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>4.096</v>
+      </c>
+      <c r="E114" t="n">
+        <v>5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10</v>
+      </c>
+      <c r="G114" t="n">
+        <v>11</v>
+      </c>
+      <c r="H114" t="n">
+        <v>60866</v>
+      </c>
+      <c r="I114" t="n">
+        <v>9.860099780000001</v>
+      </c>
+      <c r="J114" s="8" t="n">
+        <v>57.67267097</v>
+      </c>
+      <c r="K114" t="n">
+        <v>58.10379028</v>
+      </c>
+      <c r="L114" s="8" t="n">
+        <v>0.15714706</v>
+      </c>
+      <c r="M114" t="n">
+        <v>-0.09756098000000001</v>
+      </c>
+      <c r="N114" t="n">
+        <v>3.533666666666667</v>
+      </c>
+      <c r="O114" t="n">
+        <v>4.595166666666667</v>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMCCS</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MCCS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-MCCS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>QFBQ</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>1.362</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>9</v>
+      </c>
+      <c r="G115" t="n">
+        <v>15</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2068238</v>
+      </c>
+      <c r="I115" t="n">
+        <v>17.74054313</v>
+      </c>
+      <c r="J115" s="8" t="n">
+        <v>57.93623722</v>
+      </c>
+      <c r="K115" t="n">
+        <v>57.44294551</v>
+      </c>
+      <c r="L115" s="8" t="n">
+        <v>0.01635294</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.14705882</v>
+      </c>
+      <c r="N115" t="n">
+        <v>1.23072222</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1.430555553333333</v>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQFBQ</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QFBQ/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QFBQ/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>QIMD</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>3</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>10</v>
+      </c>
+      <c r="G116" t="n">
+        <v>12</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1354000</v>
+      </c>
+      <c r="I116" t="n">
+        <v>22.29607477</v>
+      </c>
+      <c r="J116" s="8" t="n">
+        <v>51.17573561</v>
+      </c>
+      <c r="K116" t="n">
+        <v>51.17573561</v>
+      </c>
+      <c r="L116" s="8" t="n">
+        <v>0.01993529</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O116" t="n">
+        <v>3.055</v>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIMD</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIMD/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QIMD/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>QISI</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>8.975</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>9</v>
+      </c>
+      <c r="G117" t="n">
+        <v>15</v>
+      </c>
+      <c r="H117" t="n">
+        <v>37410</v>
+      </c>
+      <c r="I117" t="n">
+        <v>11.72822733</v>
+      </c>
+      <c r="J117" s="8" t="n">
+        <v>57.23541113</v>
+      </c>
+      <c r="K117" t="n">
+        <v>58.2287495</v>
+      </c>
+      <c r="L117" s="8" t="n">
+        <v>0.09660884</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-0.16685206</v>
+      </c>
+      <c r="N117" t="n">
+        <v>8.472444446666666</v>
+      </c>
+      <c r="O117" t="n">
+        <v>9.203944446666666</v>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQISI</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QISI/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QISI/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>DOHI</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4</v>
+      </c>
+      <c r="F118" t="n">
+        <v>10</v>
+      </c>
+      <c r="G118" t="n">
+        <v>12</v>
+      </c>
+      <c r="H118" t="n">
+        <v>35730</v>
+      </c>
+      <c r="I118" t="n">
+        <v>44.04474954</v>
+      </c>
+      <c r="J118" s="8" t="n">
+        <v>57.74356912</v>
+      </c>
+      <c r="K118" t="n">
+        <v>66.52356361</v>
+      </c>
+      <c r="L118" s="8" t="n">
+        <v>0.11265294</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-1.96078431</v>
+      </c>
+      <c r="N118" t="n">
+        <v>2.254333333333333</v>
+      </c>
+      <c r="O118" t="n">
+        <v>2.457833333333333</v>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADOHI</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DOHI/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DOHI/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>QGRI</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3</v>
+      </c>
+      <c r="F119" t="n">
+        <v>10</v>
+      </c>
+      <c r="G119" t="n">
+        <v>13</v>
+      </c>
+      <c r="H119" t="n">
+        <v>800</v>
+      </c>
+      <c r="I119" t="n">
+        <v>26.30822596</v>
+      </c>
+      <c r="J119" s="8" t="n">
+        <v>56.81709346</v>
+      </c>
+      <c r="K119" t="n">
+        <v>51.31707688</v>
+      </c>
+      <c r="L119" s="8" t="n">
+        <v>0.06877941</v>
+      </c>
+      <c r="M119" t="n">
+        <v>4.61538462</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1.033666666666667</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1.708333333333333</v>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGRI</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QGRI/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QGRI/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>SIIS</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>10</v>
+      </c>
+      <c r="G120" t="n">
+        <v>12</v>
+      </c>
+      <c r="H120" t="n">
+        <v>919477</v>
+      </c>
+      <c r="I120" t="n">
+        <v>21.72154662</v>
+      </c>
+      <c r="J120" s="8" t="n">
+        <v>55.40876255</v>
+      </c>
+      <c r="K120" t="n">
+        <v>56.30002652</v>
+      </c>
+      <c r="L120" s="8" t="n">
+        <v>0.01609118</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-0.14513788</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.6218888866666666</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0.7337222200000001</v>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ASIIS</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-SIIS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-SIIS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>AKHI</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E121" t="n">
+        <v>14</v>
+      </c>
+      <c r="F121" t="n">
+        <v>8</v>
+      </c>
+      <c r="G121" t="n">
+        <v>4</v>
+      </c>
+      <c r="H121" t="n">
+        <v>482259</v>
+      </c>
+      <c r="I121" t="n">
+        <v>7.84273475</v>
+      </c>
+      <c r="J121" s="8" t="n">
+        <v>47.73487866</v>
+      </c>
+      <c r="K121" t="n">
+        <v>50.90054419</v>
+      </c>
+      <c r="L121" s="8" t="n">
+        <v>0.00466765</v>
+      </c>
+      <c r="M121" t="n">
+        <v>-0.57685782</v>
+      </c>
+      <c r="N121" t="n">
+        <v>2.71272222</v>
+      </c>
+      <c r="O121" t="n">
+        <v>3.145388886666666</v>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AAKHI</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-AKHI/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-AKHI/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>WDAM</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="E122" t="n">
+        <v>12</v>
+      </c>
+      <c r="F122" t="n">
+        <v>10</v>
+      </c>
+      <c r="G122" t="n">
+        <v>4</v>
+      </c>
+      <c r="H122" t="n">
+        <v>400085</v>
+      </c>
+      <c r="I122" t="n">
+        <v>16.9205621</v>
+      </c>
+      <c r="J122" s="8" t="n">
+        <v>43.35346952</v>
+      </c>
+      <c r="K122" t="n">
+        <v>47.02176763</v>
+      </c>
+      <c r="L122" s="8" t="n">
+        <v>0.02164118</v>
+      </c>
+      <c r="M122" t="n">
+        <v>-0.91463415</v>
+      </c>
+      <c r="N122" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O122" t="n">
+        <v>2.488333333333333</v>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AWDAM</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-WDAM/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-WDAM/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>NLCS</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>10</v>
+      </c>
+      <c r="G123" t="n">
+        <v>14</v>
+      </c>
+      <c r="H123" t="n">
+        <v>238404</v>
+      </c>
+      <c r="I123" t="n">
+        <v>38.791723</v>
+      </c>
+      <c r="J123" s="8" t="n">
+        <v>67.64967964</v>
+      </c>
+      <c r="K123" t="n">
+        <v>67.64967964</v>
+      </c>
+      <c r="L123" s="8" t="n">
+        <v>0.05413529</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.6856111133333332</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0.7571111133333334</v>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ANLCS</t>
+        </is>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-NLCS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-NLCS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>QOIS</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>9</v>
+      </c>
+      <c r="G124" t="n">
+        <v>15</v>
+      </c>
+      <c r="H124" t="n">
+        <v>791868</v>
+      </c>
+      <c r="I124" t="n">
+        <v>26.17417301</v>
+      </c>
+      <c r="J124" s="8" t="n">
+        <v>54.44939123</v>
+      </c>
+      <c r="K124" t="n">
+        <v>51.92909077</v>
+      </c>
+      <c r="L124" s="8" t="n">
+        <v>0.01825</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.65645514</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.7915000000000001</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1.048166666666667</v>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQOIS</t>
+        </is>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QOIS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-QOIS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>DBIS</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>1.307</v>
+      </c>
+      <c r="E125" t="n">
+        <v>14</v>
+      </c>
+      <c r="F125" t="n">
+        <v>10</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2</v>
+      </c>
+      <c r="H125" t="n">
+        <v>123999</v>
+      </c>
+      <c r="I125" t="n">
+        <v>13.0085436</v>
+      </c>
+      <c r="J125" s="8" t="n">
+        <v>46.65205678</v>
+      </c>
+      <c r="K125" t="n">
+        <v>46.65205678</v>
+      </c>
+      <c r="L125" s="8" t="n">
+        <v>0.00672647</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>1.18922222</v>
+      </c>
+      <c r="O125" t="n">
+        <v>1.42572222</v>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADBIS</t>
+        </is>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DBIS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-DBIS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>IHGS</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>6</v>
+      </c>
+      <c r="F126" t="n">
+        <v>10</v>
+      </c>
+      <c r="G126" t="n">
+        <v>10</v>
+      </c>
+      <c r="H126" t="n">
+        <v>302083</v>
+      </c>
+      <c r="I126" t="n">
+        <v>25.31666481</v>
+      </c>
+      <c r="J126" s="8" t="n">
+        <v>56.6137683</v>
+      </c>
+      <c r="K126" t="n">
+        <v>53.24577006</v>
+      </c>
+      <c r="L126" s="8" t="n">
+        <v>0.15808824</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1.25957026</v>
+      </c>
+      <c r="N126" t="n">
+        <v>3.520611113333333</v>
+      </c>
+      <c r="O126" t="n">
+        <v>4.50877778</v>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIHGS</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-IHGS/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-IHGS/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>FALH</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E127" t="n">
+        <v>15</v>
+      </c>
+      <c r="F127" t="n">
+        <v>9</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2</v>
+      </c>
+      <c r="H127" t="n">
+        <v>9107</v>
+      </c>
+      <c r="I127" t="n">
+        <v>20.2638014</v>
+      </c>
+      <c r="J127" s="8" t="n">
+        <v>47.1493232</v>
+      </c>
+      <c r="K127" t="n">
+        <v>51.44859629</v>
+      </c>
+      <c r="L127" s="8" t="n">
+        <v>0.00856765</v>
+      </c>
+      <c r="M127" t="n">
+        <v>-1.20481928</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.7198888866666667</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0.9343888866666666</v>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AFALH</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-FALH/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-FALH/technicals/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="9" t="n">
+        <v>45306.4923882025</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>BEMA</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>4</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10</v>
+      </c>
+      <c r="G128" t="n">
+        <v>14</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>20.97643757</v>
+      </c>
+      <c r="J128" s="8" t="n">
+        <v>61.11081012</v>
+      </c>
+      <c r="K128" t="n">
+        <v>61.11081012</v>
+      </c>
+      <c r="L128" s="8" t="n">
+        <v>0.15620294</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>3.567555553333333</v>
+      </c>
+      <c r="O128" t="n">
+        <v>4.20922222</v>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ABEMA</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-BEMA/financials-overview/</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>https://www.tradingview.com/symbols/QSE-BEMA/technicals/</t>
         </is>
       </c>
     </row>
